--- a/ImportDB/Utown Food Menu Dataset.xlsx
+++ b/ImportDB/Utown Food Menu Dataset.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="548">
   <si>
     <t>FoodName</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Bulgogi (Marinated beef)</t>
+  </si>
+  <si>
+    <t>gs://orbitaroundfood.appspot.com/bulgogi_beef.jpg</t>
   </si>
   <si>
     <t>Beef and Pork Combo</t>
@@ -272,6 +275,9 @@
     <t>Curry Beef Udon</t>
   </si>
   <si>
+    <t>gs://orbitaroundfood.appspot.com/curry_beef_udon.jpg</t>
+  </si>
+  <si>
     <t>Prawn Tempura</t>
   </si>
   <si>
@@ -447,6 +453,9 @@
   </si>
   <si>
     <t>Roasted Chicken Rice</t>
+  </si>
+  <si>
+    <t>gs://orbitaroundfood.appspot.com/chicken_rice.jpg</t>
   </si>
   <si>
     <t>Char Siew Rice</t>
@@ -686,6 +695,9 @@
     <t>Tom Yum Seafood Soup</t>
   </si>
   <si>
+    <t>gs://orbitaroundfood.appspot.com/tom_yum_seafood_soup.jpg</t>
+  </si>
+  <si>
     <t>halal</t>
   </si>
   <si>
@@ -893,6 +905,9 @@
     <t>Fish and Chips</t>
   </si>
   <si>
+    <t>gs://orbitaroundfood.appspot.com/fish_and_chips.jpg</t>
+  </si>
+  <si>
     <t>Grilled Alaskan Pollock</t>
   </si>
   <si>
@@ -914,7 +929,13 @@
     <t>Fries</t>
   </si>
   <si>
+    <t>gs://orbitaroundfood.appspot.com/fries.jpg</t>
+  </si>
+  <si>
     <t>Cheese Fries</t>
+  </si>
+  <si>
+    <t>gs://orbitaroundfood.appspot.com/cheese_fries.jpg</t>
   </si>
   <si>
     <t>Onion Ring (5 pieces)</t>
@@ -2122,8 +2143,8 @@
       <c r="C5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>7</v>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2149,7 +2170,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" s="6">
         <v>6.5</v>
@@ -2185,7 +2206,7 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="6">
         <v>6.5</v>
@@ -2221,7 +2242,7 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="6">
         <v>6.5</v>
@@ -2257,7 +2278,7 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9" s="6">
         <v>6.2</v>
@@ -2293,7 +2314,7 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10" s="6">
         <v>6.2</v>
@@ -2329,7 +2350,7 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="6">
         <v>6.5</v>
@@ -2365,7 +2386,7 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12" s="6">
         <v>6.2</v>
@@ -2401,7 +2422,7 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13" s="6">
         <v>6.2</v>
@@ -2437,7 +2458,7 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" s="6">
         <v>6.5</v>
@@ -2473,7 +2494,7 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="6">
         <v>6.5</v>
@@ -2509,7 +2530,7 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16" s="6">
         <v>5.0</v>
@@ -2545,7 +2566,7 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17" s="6">
         <v>5.0</v>
@@ -2581,7 +2602,7 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18" s="6">
         <v>5.0</v>
@@ -2617,7 +2638,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="6">
         <v>6.0</v>
@@ -2653,7 +2674,7 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" s="6">
         <v>5.0</v>
@@ -2689,7 +2710,7 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" s="6">
         <v>5.5</v>
@@ -2725,7 +2746,7 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" s="6">
         <v>5.8</v>
@@ -2761,7 +2782,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" s="6">
         <v>3.0</v>
@@ -2797,7 +2818,7 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" s="6">
         <v>3.5</v>
@@ -2833,7 +2854,7 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" s="6">
         <v>4.0</v>
@@ -2869,7 +2890,7 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26" s="6">
         <v>4.0</v>
@@ -2905,7 +2926,7 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="6">
         <v>5.8</v>
@@ -2941,7 +2962,7 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="6">
         <v>5.5</v>
@@ -2976,13 +2997,13 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29" s="6">
         <v>3.0</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>7</v>
@@ -3012,13 +3033,13 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B30" s="6">
         <v>3.0</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>7</v>
@@ -3048,13 +3069,13 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B31" s="6">
         <v>4.7</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>7</v>
@@ -3084,13 +3105,13 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B32" s="6">
         <v>5.7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>7</v>
@@ -3120,13 +3141,13 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B33" s="6">
         <v>6.2</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>7</v>
@@ -3156,13 +3177,13 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="6">
         <v>10.9</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>7</v>
@@ -3192,13 +3213,13 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B35" s="6">
         <v>3.8</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>7</v>
@@ -3228,13 +3249,13 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B36" s="6">
         <v>6.2</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>7</v>
@@ -3264,13 +3285,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B37" s="6">
         <v>5.2</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>7</v>
@@ -3300,13 +3321,13 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B38" s="6">
         <v>2.4</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>7</v>
@@ -3336,13 +3357,13 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B39" s="6">
         <v>8.5</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>7</v>
@@ -3372,13 +3393,13 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B40" s="6">
         <v>8.5</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>7</v>
@@ -3408,13 +3429,13 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B41" s="6">
         <v>8.5</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>7</v>
@@ -3444,13 +3465,13 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B42" s="6">
         <v>10.9</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>7</v>
@@ -3480,13 +3501,13 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B43" s="6">
         <v>10.0</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>7</v>
@@ -3516,13 +3537,13 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B44" s="6">
         <v>10.0</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>7</v>
@@ -3552,13 +3573,13 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B45" s="6">
         <v>9.5</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>7</v>
@@ -3588,13 +3609,13 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B46" s="6">
         <v>9.5</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>7</v>
@@ -3624,13 +3645,13 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B47" s="6">
         <v>10.5</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>7</v>
@@ -3660,13 +3681,13 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B48" s="6">
         <v>11.0</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>7</v>
@@ -3696,13 +3717,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B49" s="6">
         <v>9.0</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>7</v>
@@ -3732,13 +3753,13 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B50" s="6">
         <v>10.0</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>7</v>
@@ -3768,13 +3789,13 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" s="6">
         <v>9.5</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>7</v>
@@ -3804,13 +3825,13 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B52" s="6">
         <v>9.0</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>7</v>
@@ -3840,13 +3861,13 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B53" s="6">
         <v>8.5</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>7</v>
@@ -3876,13 +3897,13 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" s="6">
         <v>8.5</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>7</v>
@@ -3912,13 +3933,13 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B55" s="6">
         <v>8.5</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>7</v>
@@ -3948,13 +3969,13 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B56" s="6">
         <v>9.5</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>7</v>
@@ -3984,13 +4005,13 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B57" s="6">
         <v>8.5</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>7</v>
@@ -4020,13 +4041,13 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B58" s="6">
         <v>9.0</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>7</v>
@@ -4056,13 +4077,13 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B59" s="6">
         <v>9.0</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>7</v>
@@ -4092,13 +4113,13 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B60" s="6">
         <v>9.5</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>7</v>
@@ -4128,13 +4149,13 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B61" s="6">
         <v>6.0</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>7</v>
@@ -4164,13 +4185,13 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B62" s="6">
         <v>5.0</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>7</v>
@@ -4200,13 +4221,13 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B63" s="6">
         <v>5.5</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>7</v>
@@ -4236,13 +4257,13 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B64" s="6">
         <v>2.5</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>7</v>
@@ -4272,13 +4293,13 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B65" s="6">
         <v>2.5</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>7</v>
@@ -4308,13 +4329,13 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B66" s="6">
         <v>2.5</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>7</v>
@@ -4344,13 +4365,13 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B67" s="6">
         <v>2.0</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>7</v>
@@ -4380,13 +4401,13 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B68" s="6">
         <v>2.0</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>7</v>
@@ -4416,13 +4437,13 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B69" s="6">
         <v>2.0</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>7</v>
@@ -4452,13 +4473,13 @@
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B70" s="6">
         <v>9.0</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>7</v>
@@ -4488,13 +4509,13 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B71" s="6">
         <v>8.5</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>7</v>
@@ -4524,13 +4545,13 @@
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B72" s="6">
         <v>8.5</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>7</v>
@@ -4560,13 +4581,13 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B73" s="6">
         <v>5.0</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>7</v>
@@ -4596,13 +4617,13 @@
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B74" s="6">
         <v>8.5</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>7</v>
@@ -4632,13 +4653,13 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B75" s="6">
         <v>6.5</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>7</v>
@@ -4668,13 +4689,13 @@
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B76" s="6">
         <v>8.0</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>7</v>
@@ -4704,13 +4725,13 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B77" s="6">
         <v>5.5</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>7</v>
@@ -4740,13 +4761,13 @@
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B78" s="6">
         <v>4.5</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>7</v>
@@ -4776,16 +4797,16 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B79" s="6">
         <v>9.0</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>7</v>
+        <v>36</v>
+      </c>
+      <c r="D79" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -4812,13 +4833,13 @@
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B80" s="6">
         <v>4.5</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>7</v>
@@ -4848,13 +4869,13 @@
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B81" s="6">
         <v>3.5</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>7</v>
@@ -4884,13 +4905,13 @@
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B82" s="6">
         <v>3.0</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>7</v>
@@ -4920,13 +4941,13 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B83" s="6">
         <v>3.0</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>7</v>
@@ -4956,13 +4977,13 @@
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B84" s="6">
         <v>6.5</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>7</v>
@@ -4992,13 +5013,13 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B85" s="6">
         <v>4.0</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>7</v>
@@ -5028,13 +5049,13 @@
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B86" s="6">
         <v>3.0</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>7</v>
@@ -5064,13 +5085,13 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B87" s="6">
         <v>3.5</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>7</v>
@@ -5100,13 +5121,13 @@
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B88" s="6">
         <v>3.5</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>7</v>
@@ -5136,13 +5157,13 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B89" s="6">
         <v>2.5</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>7</v>
@@ -5172,13 +5193,13 @@
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B90" s="6">
         <v>10.5</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>7</v>
@@ -5208,13 +5229,13 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B91" s="6">
         <v>9.5</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>7</v>
@@ -5244,13 +5265,13 @@
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B92" s="6">
         <v>10.5</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>7</v>
@@ -5280,13 +5301,13 @@
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B93" s="6">
         <v>9.5</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>7</v>
@@ -5316,13 +5337,13 @@
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B94" s="6">
         <v>9.5</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>7</v>
@@ -5352,13 +5373,13 @@
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B95" s="6">
         <v>9.5</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>7</v>
@@ -5388,13 +5409,13 @@
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B96" s="6">
         <v>7.5</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>7</v>
@@ -5424,13 +5445,13 @@
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B97" s="6">
         <v>8.0</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>7</v>
@@ -5460,13 +5481,13 @@
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B98" s="6">
         <v>6.5</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>7</v>
@@ -5496,13 +5517,13 @@
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B99" s="6">
         <v>6.5</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>7</v>
@@ -5532,13 +5553,13 @@
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B100" s="6">
         <v>4.5</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>7</v>
@@ -5568,13 +5589,13 @@
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B101" s="6">
         <v>7.0</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>7</v>
@@ -5604,13 +5625,13 @@
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B102" s="6">
         <v>7.5</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>7</v>
@@ -5640,13 +5661,13 @@
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B103" s="6">
         <v>7.5</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>7</v>
@@ -5676,13 +5697,13 @@
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B104" s="6">
         <v>9.0</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>7</v>
@@ -5712,13 +5733,13 @@
     </row>
     <row r="105">
       <c r="A105" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B105" s="6">
         <v>8.0</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>7</v>
@@ -5748,13 +5769,13 @@
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B106" s="6">
         <v>8.0</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>7</v>
@@ -5784,13 +5805,13 @@
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B107" s="6">
         <v>8.0</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>7</v>
@@ -5820,13 +5841,13 @@
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B108" s="6">
         <v>8.5</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>7</v>
@@ -5856,13 +5877,13 @@
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B109" s="6">
         <v>8.0</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>7</v>
@@ -5892,13 +5913,13 @@
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B110" s="6">
         <v>5.0</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>7</v>
@@ -5928,13 +5949,13 @@
     </row>
     <row r="111">
       <c r="A111" s="5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B111" s="6">
         <v>5.0</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>7</v>
@@ -5964,13 +5985,13 @@
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B112" s="6">
         <v>5.0</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>7</v>
@@ -6000,13 +6021,13 @@
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B113" s="6">
         <v>4.8</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>7</v>
@@ -6036,13 +6057,13 @@
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B114" s="6">
         <v>4.8</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>7</v>
@@ -6072,13 +6093,13 @@
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B115" s="6">
         <v>5.5</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>7</v>
@@ -6108,13 +6129,13 @@
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B116" s="6">
         <v>5.5</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>7</v>
@@ -6144,13 +6165,13 @@
     </row>
     <row r="117">
       <c r="A117" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B117" s="6">
         <v>4.5</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>7</v>
@@ -6180,13 +6201,13 @@
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B118" s="6">
         <v>5.5</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>7</v>
@@ -6216,13 +6237,13 @@
     </row>
     <row r="119">
       <c r="A119" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B119" s="6">
         <v>5.5</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>7</v>
@@ -6252,13 +6273,13 @@
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B120" s="6">
         <v>4.5</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>7</v>
@@ -6288,13 +6309,13 @@
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B121" s="6">
         <v>4.3</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>7</v>
@@ -6324,13 +6345,13 @@
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B122" s="6">
         <v>4.5</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>7</v>
@@ -6360,13 +6381,13 @@
     </row>
     <row r="123">
       <c r="A123" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B123" s="6">
         <v>5.2</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>7</v>
@@ -6396,13 +6417,13 @@
     </row>
     <row r="124">
       <c r="A124" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B124" s="6">
         <v>5.0</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>7</v>
@@ -6432,13 +6453,13 @@
     </row>
     <row r="125">
       <c r="A125" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B125" s="6">
         <v>6.0</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>7</v>
@@ -6468,13 +6489,13 @@
     </row>
     <row r="126">
       <c r="A126" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B126" s="6">
         <v>5.2</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>7</v>
@@ -6504,13 +6525,13 @@
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B127" s="6">
         <v>5.2</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>7</v>
@@ -6540,13 +6561,13 @@
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B128" s="6">
         <v>6.0</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>7</v>
@@ -6576,13 +6597,13 @@
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B129" s="6">
         <v>5.2</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>7</v>
@@ -6612,13 +6633,13 @@
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B130" s="6">
         <v>5.0</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>7</v>
@@ -6648,13 +6669,13 @@
     </row>
     <row r="131">
       <c r="A131" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B131" s="6">
         <v>5.5</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>7</v>
@@ -6684,13 +6705,13 @@
     </row>
     <row r="132">
       <c r="A132" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B132" s="6">
         <v>3.5</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>7</v>
@@ -6720,13 +6741,13 @@
     </row>
     <row r="133">
       <c r="A133" s="5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B133" s="6">
         <v>3.0</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>7</v>
@@ -6756,13 +6777,13 @@
     </row>
     <row r="134">
       <c r="A134" s="5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B134" s="6">
         <v>3.0</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>7</v>
@@ -6792,13 +6813,13 @@
     </row>
     <row r="135">
       <c r="A135" s="5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B135" s="6">
         <v>4.3</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>7</v>
@@ -6828,16 +6849,16 @@
     </row>
     <row r="136">
       <c r="A136" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B136" s="6">
         <v>3.0</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>7</v>
+        <v>141</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>147</v>
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
@@ -6864,13 +6885,13 @@
     </row>
     <row r="137">
       <c r="A137" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B137" s="6">
         <v>3.0</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>7</v>
@@ -6900,13 +6921,13 @@
     </row>
     <row r="138">
       <c r="A138" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B138" s="6">
         <v>3.0</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>7</v>
@@ -6936,13 +6957,13 @@
     </row>
     <row r="139">
       <c r="A139" s="5" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B139" s="6">
         <v>3.0</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>7</v>
@@ -6972,13 +6993,13 @@
     </row>
     <row r="140">
       <c r="A140" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B140" s="6">
         <v>3.0</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>7</v>
@@ -7008,13 +7029,13 @@
     </row>
     <row r="141">
       <c r="A141" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B141" s="6">
         <v>3.0</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>7</v>
@@ -7044,13 +7065,13 @@
     </row>
     <row r="142">
       <c r="A142" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B142" s="6">
         <v>3.5</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>7</v>
@@ -7080,13 +7101,13 @@
     </row>
     <row r="143">
       <c r="A143" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B143" s="6">
         <v>3.5</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>7</v>
@@ -7116,13 +7137,13 @@
     </row>
     <row r="144">
       <c r="A144" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B144" s="6">
         <v>3.0</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>7</v>
@@ -7152,13 +7173,13 @@
     </row>
     <row r="145">
       <c r="A145" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B145" s="6">
         <v>4.0</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>7</v>
@@ -7188,13 +7209,13 @@
     </row>
     <row r="146">
       <c r="A146" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B146" s="6">
         <v>5.5</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>7</v>
@@ -7224,13 +7245,13 @@
     </row>
     <row r="147">
       <c r="A147" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B147" s="6">
         <v>5.5</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>7</v>
@@ -7260,13 +7281,13 @@
     </row>
     <row r="148">
       <c r="A148" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B148" s="6">
         <v>5.0</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>7</v>
@@ -7296,13 +7317,13 @@
     </row>
     <row r="149">
       <c r="A149" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B149" s="6">
         <v>5.0</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>7</v>
@@ -7332,13 +7353,13 @@
     </row>
     <row r="150">
       <c r="A150" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B150" s="6">
         <v>5.0</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>7</v>
@@ -7368,13 +7389,13 @@
     </row>
     <row r="151">
       <c r="A151" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B151" s="6">
         <v>4.5</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>7</v>
@@ -7404,13 +7425,13 @@
     </row>
     <row r="152">
       <c r="A152" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B152" s="6">
         <v>5.0</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>7</v>
@@ -7440,13 +7461,13 @@
     </row>
     <row r="153">
       <c r="A153" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B153" s="6">
         <v>5.0</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>7</v>
@@ -7476,13 +7497,13 @@
     </row>
     <row r="154">
       <c r="A154" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B154" s="6">
         <v>5.0</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>7</v>
@@ -7512,13 +7533,13 @@
     </row>
     <row r="155">
       <c r="A155" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B155" s="6">
         <v>5.0</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>7</v>
@@ -7548,13 +7569,13 @@
     </row>
     <row r="156">
       <c r="A156" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>7</v>
@@ -7584,13 +7605,13 @@
     </row>
     <row r="157">
       <c r="A157" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B157" s="6">
         <v>5.0</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>7</v>
@@ -7620,13 +7641,13 @@
     </row>
     <row r="158">
       <c r="A158" s="5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B158" s="6">
         <v>8.0</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>7</v>
@@ -7656,13 +7677,13 @@
     </row>
     <row r="159">
       <c r="A159" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B159" s="6">
         <v>15.0</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>7</v>
@@ -7692,13 +7713,13 @@
     </row>
     <row r="160">
       <c r="A160" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B160" s="6">
         <v>8.0</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>7</v>
@@ -7728,13 +7749,13 @@
     </row>
     <row r="161">
       <c r="A161" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B161" s="6">
         <v>6.0</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>7</v>
@@ -7764,13 +7785,13 @@
     </row>
     <row r="162">
       <c r="A162" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B162" s="6">
         <v>5.0</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>7</v>
@@ -7800,13 +7821,13 @@
     </row>
     <row r="163">
       <c r="A163" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B163" s="6">
         <v>5.0</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>7</v>
@@ -7836,13 +7857,13 @@
     </row>
     <row r="164">
       <c r="A164" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B164" s="6">
         <v>4.0</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>7</v>
@@ -7872,13 +7893,13 @@
     </row>
     <row r="165">
       <c r="A165" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B165" s="6">
         <v>5.0</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>7</v>
@@ -7908,13 +7929,13 @@
     </row>
     <row r="166">
       <c r="A166" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B166" s="6">
         <v>4.5</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>7</v>
@@ -7944,13 +7965,13 @@
     </row>
     <row r="167">
       <c r="A167" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B167" s="6">
         <v>4.0</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>7</v>
@@ -7980,13 +8001,13 @@
     </row>
     <row r="168">
       <c r="A168" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B168" s="6">
         <v>4.0</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>7</v>
@@ -8016,13 +8037,13 @@
     </row>
     <row r="169">
       <c r="A169" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B169" s="6">
         <v>5.0</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>7</v>
@@ -8052,13 +8073,13 @@
     </row>
     <row r="170">
       <c r="A170" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B170" s="6">
         <v>4.0</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>7</v>
@@ -8088,13 +8109,13 @@
     </row>
     <row r="171">
       <c r="A171" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B171" s="6">
         <v>5.0</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>7</v>
@@ -8124,13 +8145,13 @@
     </row>
     <row r="172">
       <c r="A172" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B172" s="6">
         <v>4.5</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>7</v>
@@ -8160,13 +8181,13 @@
     </row>
     <row r="173">
       <c r="A173" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B173" s="6">
         <v>5.0</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>7</v>
@@ -8196,13 +8217,13 @@
     </row>
     <row r="174">
       <c r="A174" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B174" s="6">
         <v>4.0</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>7</v>
@@ -8232,13 +8253,13 @@
     </row>
     <row r="175">
       <c r="A175" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B175" s="6">
         <v>4.0</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>7</v>
@@ -8268,13 +8289,13 @@
     </row>
     <row r="176">
       <c r="A176" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B176" s="6">
         <v>4.0</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>7</v>
@@ -8304,13 +8325,13 @@
     </row>
     <row r="177">
       <c r="A177" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B177" s="6">
         <v>5.0</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>7</v>
@@ -8340,13 +8361,13 @@
     </row>
     <row r="178">
       <c r="A178" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B178" s="6">
         <v>5.0</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>7</v>
@@ -8376,13 +8397,13 @@
     </row>
     <row r="179">
       <c r="A179" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B179" s="6">
         <v>3.0</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>7</v>
@@ -8412,13 +8433,13 @@
     </row>
     <row r="180">
       <c r="A180" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B180" s="6">
         <v>5.0</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>7</v>
@@ -8448,13 +8469,13 @@
     </row>
     <row r="181">
       <c r="A181" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B181" s="6">
         <v>1.5</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>7</v>
@@ -8484,13 +8505,13 @@
     </row>
     <row r="182">
       <c r="A182" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B182" s="6">
         <v>4.5</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>7</v>
@@ -8520,13 +8541,13 @@
     </row>
     <row r="183">
       <c r="A183" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B183" s="6">
         <v>4.0</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>7</v>
@@ -8556,13 +8577,13 @@
     </row>
     <row r="184">
       <c r="A184" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B184" s="6">
         <v>4.3</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>7</v>
@@ -8592,13 +8613,13 @@
     </row>
     <row r="185">
       <c r="A185" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B185" s="6">
         <v>4.0</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>7</v>
@@ -8628,13 +8649,13 @@
     </row>
     <row r="186">
       <c r="A186" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B186" s="6">
         <v>4.3</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>7</v>
@@ -8664,13 +8685,13 @@
     </row>
     <row r="187">
       <c r="A187" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B187" s="6">
         <v>4.5</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>7</v>
@@ -8700,13 +8721,13 @@
     </row>
     <row r="188">
       <c r="A188" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B188" s="6">
         <v>4.0</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>7</v>
@@ -8736,13 +8757,13 @@
     </row>
     <row r="189">
       <c r="A189" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B189" s="6">
         <v>4.5</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>7</v>
@@ -8772,13 +8793,13 @@
     </row>
     <row r="190">
       <c r="A190" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B190" s="6">
         <v>4.0</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>7</v>
@@ -8808,13 +8829,13 @@
     </row>
     <row r="191">
       <c r="A191" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B191" s="6">
         <v>4.0</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>7</v>
@@ -8844,13 +8865,13 @@
     </row>
     <row r="192">
       <c r="A192" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B192" s="6">
         <v>3.0</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>7</v>
@@ -8880,13 +8901,13 @@
     </row>
     <row r="193">
       <c r="A193" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B193" s="6">
         <v>4.3</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>7</v>
@@ -8916,13 +8937,13 @@
     </row>
     <row r="194">
       <c r="A194" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B194" s="6">
         <v>4.5</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>7</v>
@@ -8952,13 +8973,13 @@
     </row>
     <row r="195">
       <c r="A195" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B195" s="6">
         <v>4.5</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>7</v>
@@ -8988,13 +9009,13 @@
     </row>
     <row r="196">
       <c r="A196" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B196" s="6">
         <v>4.5</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>7</v>
@@ -9024,13 +9045,13 @@
     </row>
     <row r="197">
       <c r="A197" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B197" s="6">
         <v>5.0</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>7</v>
@@ -9060,13 +9081,13 @@
     </row>
     <row r="198">
       <c r="A198" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B198" s="6">
         <v>4.5</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>7</v>
@@ -9096,13 +9117,13 @@
     </row>
     <row r="199">
       <c r="A199" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B199" s="6">
         <v>4.3</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>7</v>
@@ -9132,13 +9153,13 @@
     </row>
     <row r="200">
       <c r="A200" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B200" s="6">
         <v>3.5</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>7</v>
@@ -9168,19 +9189,19 @@
     </row>
     <row r="201">
       <c r="A201" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B201" s="6">
         <v>5.5</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
@@ -9206,19 +9227,19 @@
     </row>
     <row r="202">
       <c r="A202" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B202" s="6">
         <v>5.5</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
@@ -9244,19 +9265,19 @@
     </row>
     <row r="203">
       <c r="A203" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B203" s="6">
         <v>5.5</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
@@ -9282,19 +9303,19 @@
     </row>
     <row r="204">
       <c r="A204" s="5" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B204" s="6">
         <v>5.5</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
@@ -9320,19 +9341,19 @@
     </row>
     <row r="205">
       <c r="A205" s="5" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B205" s="6">
         <v>5.5</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
@@ -9358,19 +9379,19 @@
     </row>
     <row r="206">
       <c r="A206" s="5" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B206" s="6">
         <v>5.0</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
@@ -9396,19 +9417,19 @@
     </row>
     <row r="207">
       <c r="A207" s="5" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B207" s="6">
         <v>5.5</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
@@ -9434,19 +9455,19 @@
     </row>
     <row r="208">
       <c r="A208" s="5" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B208" s="6">
         <v>6.5</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>7</v>
+        <v>218</v>
+      </c>
+      <c r="D208" s="8" t="s">
+        <v>227</v>
       </c>
       <c r="E208" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
@@ -9472,19 +9493,19 @@
     </row>
     <row r="209">
       <c r="A209" s="5" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B209" s="6">
         <v>5.5</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E209" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
@@ -9510,19 +9531,19 @@
     </row>
     <row r="210">
       <c r="A210" s="5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B210" s="6">
         <v>5.5</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
@@ -9548,19 +9569,19 @@
     </row>
     <row r="211">
       <c r="A211" s="5" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B211" s="6">
         <v>5.5</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
@@ -9586,19 +9607,19 @@
     </row>
     <row r="212">
       <c r="A212" s="5" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B212" s="6">
         <v>5.5</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
@@ -9624,19 +9645,19 @@
     </row>
     <row r="213">
       <c r="A213" s="5" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B213" s="6">
         <v>6.0</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
@@ -9662,19 +9683,19 @@
     </row>
     <row r="214">
       <c r="A214" s="5" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B214" s="6">
         <v>6.5</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
@@ -9700,19 +9721,19 @@
     </row>
     <row r="215">
       <c r="A215" s="5" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B215" s="6">
         <v>6.5</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
@@ -9738,19 +9759,19 @@
     </row>
     <row r="216">
       <c r="A216" s="5" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B216" s="6">
         <v>5.5</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
@@ -9776,19 +9797,19 @@
     </row>
     <row r="217">
       <c r="A217" s="5" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B217" s="6">
         <v>1.8</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E217" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
@@ -9814,19 +9835,19 @@
     </row>
     <row r="218">
       <c r="A218" s="5" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B218" s="6">
         <v>5.0</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E218" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F218" s="7"/>
       <c r="G218" s="7"/>
@@ -9852,19 +9873,19 @@
     </row>
     <row r="219">
       <c r="A219" s="5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B219" s="6">
         <v>3.5</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
@@ -9890,19 +9911,19 @@
     </row>
     <row r="220">
       <c r="A220" s="5" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B220" s="6">
         <v>2.5</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
@@ -9928,19 +9949,19 @@
     </row>
     <row r="221">
       <c r="A221" s="5" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B221" s="6">
         <v>1.8</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E221" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
@@ -9966,19 +9987,19 @@
     </row>
     <row r="222">
       <c r="A222" s="5" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B222" s="6">
         <v>5.0</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E222" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
@@ -10004,19 +10025,19 @@
     </row>
     <row r="223">
       <c r="A223" s="5" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B223" s="6">
         <v>1.8</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E223" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
@@ -10042,19 +10063,19 @@
     </row>
     <row r="224">
       <c r="A224" s="5" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B224" s="6">
         <v>5.0</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E224" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
@@ -10080,19 +10101,19 @@
     </row>
     <row r="225">
       <c r="A225" s="5" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B225" s="6">
         <v>2.0</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
@@ -10118,19 +10139,19 @@
     </row>
     <row r="226">
       <c r="A226" s="5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B226" s="6">
         <v>1.5</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
@@ -10156,13 +10177,13 @@
     </row>
     <row r="227">
       <c r="A227" s="5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B227" s="6">
         <v>4.5</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>7</v>
@@ -10192,13 +10213,13 @@
     </row>
     <row r="228">
       <c r="A228" s="5" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B228" s="6">
         <v>4.0</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>7</v>
@@ -10228,13 +10249,13 @@
     </row>
     <row r="229">
       <c r="A229" s="5" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B229" s="6">
         <v>3.5</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>7</v>
@@ -10264,13 +10285,13 @@
     </row>
     <row r="230">
       <c r="A230" s="5" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B230" s="6">
         <v>3.0</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>7</v>
@@ -10300,13 +10321,13 @@
     </row>
     <row r="231">
       <c r="A231" s="5" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B231" s="6">
         <v>4.0</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>7</v>
@@ -10336,13 +10357,13 @@
     </row>
     <row r="232">
       <c r="A232" s="5" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B232" s="6">
         <v>4.5</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>7</v>
@@ -10372,13 +10393,13 @@
     </row>
     <row r="233">
       <c r="A233" s="5" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B233" s="6">
         <v>4.5</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>7</v>
@@ -10408,13 +10429,13 @@
     </row>
     <row r="234">
       <c r="A234" s="5" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B234" s="6">
         <v>3.5</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>7</v>
@@ -10444,13 +10465,13 @@
     </row>
     <row r="235">
       <c r="A235" s="5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B235" s="6">
         <v>3.5</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>7</v>
@@ -10480,13 +10501,13 @@
     </row>
     <row r="236">
       <c r="A236" s="5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B236" s="6">
         <v>1.3</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>7</v>
@@ -10516,13 +10537,13 @@
     </row>
     <row r="237">
       <c r="A237" s="5" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B237" s="6">
         <v>1.2</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>7</v>
@@ -10552,13 +10573,13 @@
     </row>
     <row r="238">
       <c r="A238" s="5" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B238" s="6">
         <v>1.5</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>7</v>
@@ -10588,13 +10609,13 @@
     </row>
     <row r="239">
       <c r="A239" s="5" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B239" s="6">
         <v>4.0</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>7</v>
@@ -10624,13 +10645,13 @@
     </row>
     <row r="240">
       <c r="A240" s="5" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B240" s="6">
         <v>5.5</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>7</v>
@@ -10660,13 +10681,13 @@
     </row>
     <row r="241">
       <c r="A241" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B241" s="6">
         <v>1.2</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>7</v>
@@ -10696,13 +10717,13 @@
     </row>
     <row r="242">
       <c r="A242" s="5" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B242" s="6">
         <v>1.5</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>7</v>
@@ -10732,13 +10753,13 @@
     </row>
     <row r="243">
       <c r="A243" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B243" s="6">
         <v>3.0</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>7</v>
@@ -10768,13 +10789,13 @@
     </row>
     <row r="244">
       <c r="A244" s="5" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B244" s="6">
         <v>5.0</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>7</v>
@@ -10804,13 +10825,13 @@
     </row>
     <row r="245">
       <c r="A245" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B245" s="6">
         <v>5.0</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>7</v>
@@ -10840,13 +10861,13 @@
     </row>
     <row r="246">
       <c r="A246" s="5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B246" s="6">
         <v>5.0</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>7</v>
@@ -10876,13 +10897,13 @@
     </row>
     <row r="247">
       <c r="A247" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B247" s="6">
         <v>5.0</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>7</v>
@@ -10912,13 +10933,13 @@
     </row>
     <row r="248">
       <c r="A248" s="5" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B248" s="6">
         <v>5.0</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D248" s="5" t="s">
         <v>7</v>
@@ -10948,13 +10969,13 @@
     </row>
     <row r="249">
       <c r="A249" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B249" s="6">
         <v>5.0</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>7</v>
@@ -10984,13 +11005,13 @@
     </row>
     <row r="250">
       <c r="A250" s="5" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B250" s="6">
         <v>5.0</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>7</v>
@@ -11020,13 +11041,13 @@
     </row>
     <row r="251">
       <c r="A251" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B251" s="6">
         <v>5.0</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>7</v>
@@ -11056,13 +11077,13 @@
     </row>
     <row r="252">
       <c r="A252" s="5" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B252" s="6">
         <v>3.8</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>7</v>
@@ -11092,13 +11113,13 @@
     </row>
     <row r="253">
       <c r="A253" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B253" s="6">
         <v>3.8</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>7</v>
@@ -11128,13 +11149,13 @@
     </row>
     <row r="254">
       <c r="A254" s="5" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B254" s="6">
         <v>4.0</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>7</v>
@@ -11164,13 +11185,13 @@
     </row>
     <row r="255">
       <c r="A255" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B255" s="6">
         <v>4.0</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>7</v>
@@ -11200,13 +11221,13 @@
     </row>
     <row r="256">
       <c r="A256" s="5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B256" s="6">
         <v>3.0</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>7</v>
@@ -11236,13 +11257,13 @@
     </row>
     <row r="257">
       <c r="A257" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B257" s="6">
         <v>4.0</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>7</v>
@@ -11272,13 +11293,13 @@
     </row>
     <row r="258">
       <c r="A258" s="5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B258" s="6">
         <v>5.0</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>7</v>
@@ -11308,13 +11329,13 @@
     </row>
     <row r="259">
       <c r="A259" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B259" s="6">
         <v>3.0</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>7</v>
@@ -11344,13 +11365,13 @@
     </row>
     <row r="260">
       <c r="A260" s="5" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B260" s="6">
         <v>4.0</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>7</v>
@@ -11380,13 +11401,13 @@
     </row>
     <row r="261">
       <c r="A261" s="5" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="B261" s="6">
         <v>5.0</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>7</v>
@@ -11416,13 +11437,13 @@
     </row>
     <row r="262">
       <c r="A262" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B262" s="6">
         <v>3.8</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>7</v>
@@ -11452,13 +11473,13 @@
     </row>
     <row r="263">
       <c r="A263" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B263" s="6">
         <v>3.8</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>7</v>
@@ -11488,13 +11509,13 @@
     </row>
     <row r="264">
       <c r="A264" s="5" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B264" s="6">
         <v>4.0</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>7</v>
@@ -11524,13 +11545,13 @@
     </row>
     <row r="265">
       <c r="A265" s="5" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B265" s="6">
         <v>2.5</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>7</v>
@@ -11560,13 +11581,13 @@
     </row>
     <row r="266">
       <c r="A266" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B266" s="6">
         <v>2.5</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>7</v>
@@ -11596,13 +11617,13 @@
     </row>
     <row r="267">
       <c r="A267" s="5" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B267" s="6">
         <v>2.5</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>7</v>
@@ -11632,13 +11653,13 @@
     </row>
     <row r="268">
       <c r="A268" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B268" s="6">
         <v>2.8</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>7</v>
@@ -11668,13 +11689,13 @@
     </row>
     <row r="269">
       <c r="A269" s="5" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B269" s="6">
         <v>6.2</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>7</v>
@@ -11704,13 +11725,13 @@
     </row>
     <row r="270">
       <c r="A270" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B270" s="6">
         <v>6.2</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>7</v>
@@ -11740,13 +11761,13 @@
     </row>
     <row r="271">
       <c r="A271" s="5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B271" s="6">
         <v>8.9</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D271" s="5" t="s">
         <v>7</v>
@@ -11776,13 +11797,13 @@
     </row>
     <row r="272">
       <c r="A272" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B272" s="6">
         <v>6.5</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>7</v>
@@ -11812,16 +11833,16 @@
     </row>
     <row r="273">
       <c r="A273" s="5" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B273" s="6">
         <v>6.5</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D273" s="5" t="s">
-        <v>7</v>
+        <v>292</v>
+      </c>
+      <c r="D273" s="8" t="s">
+        <v>297</v>
       </c>
       <c r="E273" s="7"/>
       <c r="F273" s="7"/>
@@ -11848,13 +11869,13 @@
     </row>
     <row r="274">
       <c r="A274" s="5" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="B274" s="6">
         <v>6.9</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D274" s="5" t="s">
         <v>7</v>
@@ -11884,13 +11905,13 @@
     </row>
     <row r="275">
       <c r="A275" s="5" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="B275" s="6">
         <v>4.9</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D275" s="5" t="s">
         <v>7</v>
@@ -11920,13 +11941,13 @@
     </row>
     <row r="276">
       <c r="A276" s="5" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B276" s="6">
         <v>5.9</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>7</v>
@@ -11956,13 +11977,13 @@
     </row>
     <row r="277">
       <c r="A277" s="5" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B277" s="6">
         <v>5.9</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D277" s="5" t="s">
         <v>7</v>
@@ -11992,13 +12013,13 @@
     </row>
     <row r="278">
       <c r="A278" s="5" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B278" s="6">
         <v>5.9</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>7</v>
@@ -12028,13 +12049,13 @@
     </row>
     <row r="279">
       <c r="A279" s="5" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B279" s="6">
         <v>7.5</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>7</v>
@@ -12064,16 +12085,16 @@
     </row>
     <row r="280">
       <c r="A280" s="5" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="B280" s="6">
         <v>2.0</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D280" s="5" t="s">
-        <v>7</v>
+        <v>292</v>
+      </c>
+      <c r="D280" s="8" t="s">
+        <v>305</v>
       </c>
       <c r="E280" s="7"/>
       <c r="F280" s="7"/>
@@ -12100,16 +12121,16 @@
     </row>
     <row r="281">
       <c r="A281" s="5" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B281" s="6">
         <v>3.0</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="D281" s="5" t="s">
-        <v>7</v>
+        <v>292</v>
+      </c>
+      <c r="D281" s="8" t="s">
+        <v>307</v>
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
@@ -12136,13 +12157,13 @@
     </row>
     <row r="282">
       <c r="A282" s="5" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="B282" s="6">
         <v>2.0</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D282" s="5" t="s">
         <v>7</v>
@@ -12172,13 +12193,13 @@
     </row>
     <row r="283">
       <c r="A283" s="5" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="B283" s="6">
         <v>2.0</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D283" s="5" t="s">
         <v>7</v>
@@ -12208,13 +12229,13 @@
     </row>
     <row r="284">
       <c r="A284" s="5" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
       <c r="B284" s="6">
         <v>1.5</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>7</v>
@@ -12244,13 +12265,13 @@
     </row>
     <row r="285">
       <c r="A285" s="5" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B285" s="6">
         <v>1.5</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>7</v>
@@ -12280,13 +12301,13 @@
     </row>
     <row r="286">
       <c r="A286" s="5" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="B286" s="6">
         <v>2.0</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>7</v>
@@ -12316,13 +12337,13 @@
     </row>
     <row r="287">
       <c r="A287" s="5" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
       <c r="B287" s="6">
         <v>1.2</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D287" s="5" t="s">
         <v>7</v>
@@ -12352,13 +12373,13 @@
     </row>
     <row r="288">
       <c r="A288" s="5" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="B288" s="6">
         <v>1.2</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D288" s="5" t="s">
         <v>7</v>
@@ -12388,13 +12409,13 @@
     </row>
     <row r="289">
       <c r="A289" s="5" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B289" s="6">
         <v>2.0</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D289" s="5" t="s">
         <v>7</v>
@@ -12424,13 +12445,13 @@
     </row>
     <row r="290">
       <c r="A290" s="5" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B290" s="6">
         <v>1.5</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D290" s="5" t="s">
         <v>7</v>
@@ -12460,13 +12481,13 @@
     </row>
     <row r="291">
       <c r="A291" s="5" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B291" s="6">
         <v>3.5</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D291" s="5" t="s">
         <v>7</v>
@@ -12496,19 +12517,19 @@
     </row>
     <row r="292">
       <c r="A292" s="5" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B292" s="6">
         <v>5.0</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D292" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F292" s="7"/>
       <c r="G292" s="7"/>
@@ -12534,13 +12555,13 @@
     </row>
     <row r="293">
       <c r="A293" s="5" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B293" s="6">
         <v>6.0</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D293" s="5" t="s">
         <v>7</v>
@@ -12570,19 +12591,19 @@
     </row>
     <row r="294">
       <c r="A294" s="5" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B294" s="6">
         <v>5.0</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D294" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E294" s="5" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F294" s="7"/>
       <c r="G294" s="7"/>
@@ -12608,19 +12629,19 @@
     </row>
     <row r="295">
       <c r="A295" s="5" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B295" s="6">
         <v>5.5</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D295" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E295" s="5" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F295" s="7"/>
       <c r="G295" s="7"/>
@@ -12646,13 +12667,13 @@
     </row>
     <row r="296">
       <c r="A296" s="5" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B296" s="6">
         <v>6.0</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D296" s="5" t="s">
         <v>7</v>
@@ -12682,13 +12703,13 @@
     </row>
     <row r="297">
       <c r="A297" s="5" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B297" s="6">
         <v>6.5</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D297" s="5" t="s">
         <v>7</v>
@@ -12718,13 +12739,13 @@
     </row>
     <row r="298">
       <c r="A298" s="5" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B298" s="6">
         <v>7.0</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D298" s="5" t="s">
         <v>7</v>
@@ -12754,13 +12775,13 @@
     </row>
     <row r="299">
       <c r="A299" s="5" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="B299" s="6">
         <v>7.5</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D299" s="5" t="s">
         <v>7</v>
@@ -12790,13 +12811,13 @@
     </row>
     <row r="300">
       <c r="A300" s="5" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="B300" s="6">
         <v>7.0</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>7</v>
@@ -12826,13 +12847,13 @@
     </row>
     <row r="301">
       <c r="A301" s="5" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="B301" s="6">
         <v>1.5</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>7</v>
@@ -12862,13 +12883,13 @@
     </row>
     <row r="302">
       <c r="A302" s="5" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="B302" s="6">
         <v>2.5</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D302" s="5" t="s">
         <v>7</v>
@@ -12898,13 +12919,13 @@
     </row>
     <row r="303">
       <c r="A303" s="5" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="B303" s="6">
         <v>2.5</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>7</v>
@@ -12934,13 +12955,13 @@
     </row>
     <row r="304">
       <c r="A304" s="5" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B304" s="6">
         <v>3.0</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>7</v>
@@ -12970,13 +12991,13 @@
     </row>
     <row r="305">
       <c r="A305" s="5" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="B305" s="6">
         <v>3.5</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D305" s="5" t="s">
         <v>7</v>
@@ -13006,13 +13027,13 @@
     </row>
     <row r="306">
       <c r="A306" s="5" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="B306" s="6">
         <v>3.0</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D306" s="5" t="s">
         <v>7</v>
@@ -13042,13 +13063,13 @@
     </row>
     <row r="307">
       <c r="A307" s="5" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B307" s="6">
         <v>3.0</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D307" s="5" t="s">
         <v>7</v>
@@ -13078,13 +13099,13 @@
     </row>
     <row r="308">
       <c r="A308" s="5" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="B308" s="6">
         <v>3.5</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D308" s="5" t="s">
         <v>7</v>
@@ -13114,13 +13135,13 @@
     </row>
     <row r="309">
       <c r="A309" s="5" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B309" s="6">
         <v>2.2</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D309" s="5" t="s">
         <v>7</v>
@@ -13150,13 +13171,13 @@
     </row>
     <row r="310">
       <c r="A310" s="5" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="B310" s="6">
         <v>2.2</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D310" s="5" t="s">
         <v>7</v>
@@ -13186,13 +13207,13 @@
     </row>
     <row r="311">
       <c r="A311" s="5" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B311" s="6">
         <v>2.2</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D311" s="5" t="s">
         <v>7</v>
@@ -13222,13 +13243,13 @@
     </row>
     <row r="312">
       <c r="A312" s="5" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B312" s="6">
         <v>2.2</v>
       </c>
       <c r="C312" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D312" s="5" t="s">
         <v>7</v>
@@ -13258,13 +13279,13 @@
     </row>
     <row r="313">
       <c r="A313" s="5" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="B313" s="6">
         <v>2.2</v>
       </c>
       <c r="C313" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D313" s="5" t="s">
         <v>7</v>
@@ -13294,13 +13315,13 @@
     </row>
     <row r="314">
       <c r="A314" s="5" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B314" s="6">
         <v>1.6</v>
       </c>
       <c r="C314" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D314" s="5" t="s">
         <v>7</v>
@@ -13330,13 +13351,13 @@
     </row>
     <row r="315">
       <c r="A315" s="5" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="B315" s="6">
         <v>4.0</v>
       </c>
       <c r="C315" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D315" s="5" t="s">
         <v>7</v>
@@ -13366,13 +13387,13 @@
     </row>
     <row r="316">
       <c r="A316" s="5" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B316" s="6">
         <v>4.0</v>
       </c>
       <c r="C316" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D316" s="5" t="s">
         <v>7</v>
@@ -13402,13 +13423,13 @@
     </row>
     <row r="317">
       <c r="A317" s="5" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B317" s="6">
         <v>4.0</v>
       </c>
       <c r="C317" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D317" s="5" t="s">
         <v>7</v>
@@ -13438,13 +13459,13 @@
     </row>
     <row r="318">
       <c r="A318" s="5" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B318" s="6">
         <v>1.0</v>
       </c>
       <c r="C318" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D318" s="5" t="s">
         <v>7</v>
@@ -13474,13 +13495,13 @@
     </row>
     <row r="319">
       <c r="A319" s="5" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B319" s="6">
         <v>1.0</v>
       </c>
       <c r="C319" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D319" s="5" t="s">
         <v>7</v>
@@ -13510,13 +13531,13 @@
     </row>
     <row r="320">
       <c r="A320" s="5" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B320" s="6">
         <v>1.0</v>
       </c>
       <c r="C320" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D320" s="5" t="s">
         <v>7</v>
@@ -13546,13 +13567,13 @@
     </row>
     <row r="321">
       <c r="A321" s="5" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B321" s="6">
         <v>1.0</v>
       </c>
       <c r="C321" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D321" s="5" t="s">
         <v>7</v>
@@ -13582,13 +13603,13 @@
     </row>
     <row r="322">
       <c r="A322" s="5" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B322" s="6">
         <v>1.0</v>
       </c>
       <c r="C322" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D322" s="5" t="s">
         <v>7</v>
@@ -13618,13 +13639,13 @@
     </row>
     <row r="323">
       <c r="A323" s="5" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="B323" s="6">
         <v>1.0</v>
       </c>
       <c r="C323" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D323" s="5" t="s">
         <v>7</v>
@@ -13654,13 +13675,13 @@
     </row>
     <row r="324">
       <c r="A324" s="5" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B324" s="6">
         <v>1.4</v>
       </c>
       <c r="C324" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D324" s="5" t="s">
         <v>7</v>
@@ -13690,13 +13711,13 @@
     </row>
     <row r="325">
       <c r="A325" s="5" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B325" s="6">
         <v>1.6</v>
       </c>
       <c r="C325" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D325" s="5" t="s">
         <v>7</v>
@@ -13726,13 +13747,13 @@
     </row>
     <row r="326">
       <c r="A326" s="5" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B326" s="6">
         <v>1.6</v>
       </c>
       <c r="C326" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D326" s="5" t="s">
         <v>7</v>
@@ -13762,13 +13783,13 @@
     </row>
     <row r="327">
       <c r="A327" s="5" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="B327" s="6">
         <v>3.0</v>
       </c>
       <c r="C327" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D327" s="5" t="s">
         <v>7</v>
@@ -13798,13 +13819,13 @@
     </row>
     <row r="328">
       <c r="A328" s="5" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B328" s="6">
         <v>1.6</v>
       </c>
       <c r="C328" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D328" s="5" t="s">
         <v>7</v>
@@ -13834,13 +13855,13 @@
     </row>
     <row r="329">
       <c r="A329" s="5" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="B329" s="6">
         <v>2.0</v>
       </c>
       <c r="C329" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D329" s="5" t="s">
         <v>7</v>
@@ -13870,13 +13891,13 @@
     </row>
     <row r="330">
       <c r="A330" s="5" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B330" s="6">
         <v>2.0</v>
       </c>
       <c r="C330" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D330" s="5" t="s">
         <v>7</v>
@@ -13906,13 +13927,13 @@
     </row>
     <row r="331">
       <c r="A331" s="5" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="B331" s="6">
         <v>1.4</v>
       </c>
       <c r="C331" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D331" s="5" t="s">
         <v>7</v>
@@ -13942,13 +13963,13 @@
     </row>
     <row r="332">
       <c r="A332" s="5" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B332" s="6">
         <v>1.6</v>
       </c>
       <c r="C332" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D332" s="5" t="s">
         <v>7</v>
@@ -13978,13 +13999,13 @@
     </row>
     <row r="333">
       <c r="A333" s="5" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B333" s="6">
         <v>1.8</v>
       </c>
       <c r="C333" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D333" s="5" t="s">
         <v>7</v>
@@ -14014,13 +14035,13 @@
     </row>
     <row r="334">
       <c r="A334" s="5" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B334" s="6">
         <v>1.8</v>
       </c>
       <c r="C334" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D334" s="5" t="s">
         <v>7</v>
@@ -14050,13 +14071,13 @@
     </row>
     <row r="335">
       <c r="A335" s="5" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B335" s="6">
         <v>1.8</v>
       </c>
       <c r="C335" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D335" s="5" t="s">
         <v>7</v>
@@ -14086,13 +14107,13 @@
     </row>
     <row r="336">
       <c r="A336" s="5" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B336" s="6">
         <v>1.8</v>
       </c>
       <c r="C336" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="D336" s="5" t="s">
         <v>7</v>
@@ -14122,19 +14143,19 @@
     </row>
     <row r="337">
       <c r="A337" s="5" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B337" s="6">
         <v>1.6</v>
       </c>
       <c r="C337" s="5" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D337" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F337" s="7"/>
       <c r="G337" s="7"/>
@@ -14160,19 +14181,19 @@
     </row>
     <row r="338">
       <c r="A338" s="5" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B338" s="6">
         <v>1.6</v>
       </c>
       <c r="C338" s="5" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D338" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F338" s="7"/>
       <c r="G338" s="7"/>
@@ -14198,19 +14219,19 @@
     </row>
     <row r="339">
       <c r="A339" s="5" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
       <c r="B339" s="6">
         <v>1.8</v>
       </c>
       <c r="C339" s="5" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D339" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F339" s="7"/>
       <c r="G339" s="7"/>
@@ -14236,19 +14257,19 @@
     </row>
     <row r="340">
       <c r="A340" s="5" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B340" s="6">
         <v>2.0</v>
       </c>
       <c r="C340" s="5" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D340" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F340" s="7"/>
       <c r="G340" s="7"/>
@@ -14274,19 +14295,19 @@
     </row>
     <row r="341">
       <c r="A341" s="5" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="B341" s="6">
         <v>1.8</v>
       </c>
       <c r="C341" s="5" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D341" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E341" s="5" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F341" s="7"/>
       <c r="G341" s="7"/>
@@ -14312,19 +14333,19 @@
     </row>
     <row r="342">
       <c r="A342" s="5" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B342" s="6">
         <v>3.0</v>
       </c>
       <c r="C342" s="5" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D342" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F342" s="7"/>
       <c r="G342" s="7"/>
@@ -14350,19 +14371,19 @@
     </row>
     <row r="343">
       <c r="A343" s="5" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B343" s="6">
         <v>1.8</v>
       </c>
       <c r="C343" s="5" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D343" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F343" s="7"/>
       <c r="G343" s="7"/>
@@ -14388,19 +14409,19 @@
     </row>
     <row r="344">
       <c r="A344" s="5" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B344" s="6">
         <v>1.6</v>
       </c>
       <c r="C344" s="5" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D344" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F344" s="7"/>
       <c r="G344" s="7"/>
@@ -14426,19 +14447,19 @@
     </row>
     <row r="345">
       <c r="A345" s="5" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="B345" s="6">
         <v>2.0</v>
       </c>
       <c r="C345" s="5" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D345" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E345" s="5" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F345" s="7"/>
       <c r="G345" s="7"/>
@@ -14464,19 +14485,19 @@
     </row>
     <row r="346">
       <c r="A346" s="5" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B346" s="6">
         <v>2.0</v>
       </c>
       <c r="C346" s="5" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D346" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E346" s="5" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F346" s="7"/>
       <c r="G346" s="7"/>
@@ -14502,19 +14523,19 @@
     </row>
     <row r="347">
       <c r="A347" s="5" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B347" s="6">
         <v>2.0</v>
       </c>
       <c r="C347" s="5" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="D347" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E347" s="5" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="F347" s="7"/>
       <c r="G347" s="7"/>
@@ -14540,19 +14561,19 @@
     </row>
     <row r="348">
       <c r="A348" s="5" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B348" s="6">
         <v>0.7</v>
       </c>
       <c r="C348" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D348" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E348" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
@@ -14578,19 +14599,19 @@
     </row>
     <row r="349">
       <c r="A349" s="5" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B349" s="6">
         <v>0.8</v>
       </c>
       <c r="C349" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D349" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E349" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F349" s="7"/>
       <c r="G349" s="7"/>
@@ -14616,19 +14637,19 @@
     </row>
     <row r="350">
       <c r="A350" s="5" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B350" s="6">
         <v>0.9</v>
       </c>
       <c r="C350" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D350" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E350" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
@@ -14654,19 +14675,19 @@
     </row>
     <row r="351">
       <c r="A351" s="5" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B351" s="6">
         <v>0.9</v>
       </c>
       <c r="C351" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D351" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E351" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F351" s="7"/>
       <c r="G351" s="7"/>
@@ -14692,19 +14713,19 @@
     </row>
     <row r="352">
       <c r="A352" s="5" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B352" s="6">
         <v>0.9</v>
       </c>
       <c r="C352" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D352" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E352" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F352" s="7"/>
       <c r="G352" s="7"/>
@@ -14730,19 +14751,19 @@
     </row>
     <row r="353">
       <c r="A353" s="5" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B353" s="6">
         <v>1.2</v>
       </c>
       <c r="C353" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D353" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E353" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
@@ -14768,19 +14789,19 @@
     </row>
     <row r="354">
       <c r="A354" s="5" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="B354" s="6">
         <v>0.7</v>
       </c>
       <c r="C354" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D354" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E354" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F354" s="7"/>
       <c r="G354" s="7"/>
@@ -14806,19 +14827,19 @@
     </row>
     <row r="355">
       <c r="A355" s="5" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B355" s="6">
         <v>0.6</v>
       </c>
       <c r="C355" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D355" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E355" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F355" s="7"/>
       <c r="G355" s="7"/>
@@ -14844,19 +14865,19 @@
     </row>
     <row r="356">
       <c r="A356" s="5" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="B356" s="6">
         <v>1.0</v>
       </c>
       <c r="C356" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D356" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E356" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F356" s="7"/>
       <c r="G356" s="7"/>
@@ -14882,19 +14903,19 @@
     </row>
     <row r="357">
       <c r="A357" s="5" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B357" s="6">
         <v>1.1</v>
       </c>
       <c r="C357" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D357" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E357" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F357" s="7"/>
       <c r="G357" s="7"/>
@@ -14920,19 +14941,19 @@
     </row>
     <row r="358">
       <c r="A358" s="5" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="B358" s="6">
         <v>1.3</v>
       </c>
       <c r="C358" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D358" s="5" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="E358" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F358" s="7"/>
       <c r="G358" s="7"/>
@@ -14958,19 +14979,19 @@
     </row>
     <row r="359">
       <c r="A359" s="5" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="B359" s="6">
         <v>1.4</v>
       </c>
       <c r="C359" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D359" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E359" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
@@ -14996,19 +15017,19 @@
     </row>
     <row r="360">
       <c r="A360" s="5" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B360" s="6">
         <v>1.3</v>
       </c>
       <c r="C360" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D360" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E360" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
@@ -15034,19 +15055,19 @@
     </row>
     <row r="361">
       <c r="A361" s="5" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="B361" s="6">
         <v>1.0</v>
       </c>
       <c r="C361" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D361" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E361" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F361" s="7"/>
       <c r="G361" s="7"/>
@@ -15072,19 +15093,19 @@
     </row>
     <row r="362">
       <c r="A362" s="5" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B362" s="6">
         <v>2.2</v>
       </c>
       <c r="C362" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D362" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E362" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F362" s="7"/>
       <c r="G362" s="7"/>
@@ -15110,19 +15131,19 @@
     </row>
     <row r="363">
       <c r="A363" s="5" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
       <c r="B363" s="6">
         <v>0.7</v>
       </c>
       <c r="C363" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D363" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E363" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F363" s="7"/>
       <c r="G363" s="7"/>
@@ -15148,19 +15169,19 @@
     </row>
     <row r="364">
       <c r="A364" s="5" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B364" s="6">
         <v>0.5</v>
       </c>
       <c r="C364" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="D364" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E364" s="8" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F364" s="7"/>
       <c r="G364" s="7"/>
@@ -15186,13 +15207,13 @@
     </row>
     <row r="365">
       <c r="A365" s="5" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="B365" s="6">
         <v>6.0</v>
       </c>
       <c r="C365" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D365" s="5" t="s">
         <v>7</v>
@@ -15222,13 +15243,13 @@
     </row>
     <row r="366">
       <c r="A366" s="5" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B366" s="6">
         <v>8.0</v>
       </c>
       <c r="C366" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D366" s="5" t="s">
         <v>7</v>
@@ -15258,13 +15279,13 @@
     </row>
     <row r="367">
       <c r="A367" s="5" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B367" s="6">
         <v>5.0</v>
       </c>
       <c r="C367" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D367" s="5" t="s">
         <v>7</v>
@@ -15294,13 +15315,13 @@
     </row>
     <row r="368">
       <c r="A368" s="5" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B368" s="6">
         <v>6.8</v>
       </c>
       <c r="C368" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D368" s="5" t="s">
         <v>7</v>
@@ -15330,13 +15351,13 @@
     </row>
     <row r="369">
       <c r="A369" s="5" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B369" s="6">
         <v>5.5</v>
       </c>
       <c r="C369" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D369" s="5" t="s">
         <v>7</v>
@@ -15366,13 +15387,13 @@
     </row>
     <row r="370">
       <c r="A370" s="5" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B370" s="6">
         <v>6.9</v>
       </c>
       <c r="C370" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D370" s="5" t="s">
         <v>7</v>
@@ -15402,19 +15423,19 @@
     </row>
     <row r="371">
       <c r="A371" s="5" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B371" s="6">
         <v>10.5</v>
       </c>
       <c r="C371" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D371" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E371" s="8" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F371" s="7"/>
       <c r="G371" s="7"/>
@@ -15440,13 +15461,13 @@
     </row>
     <row r="372">
       <c r="A372" s="5" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B372" s="6">
         <v>10.5</v>
       </c>
       <c r="C372" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D372" s="5" t="s">
         <v>7</v>
@@ -15476,19 +15497,19 @@
     </row>
     <row r="373">
       <c r="A373" s="5" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B373" s="6">
         <v>10.5</v>
       </c>
       <c r="C373" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D373" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E373" s="8" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="F373" s="7"/>
       <c r="G373" s="7"/>
@@ -15514,13 +15535,13 @@
     </row>
     <row r="374">
       <c r="A374" s="5" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B374" s="6">
         <v>11.45</v>
       </c>
       <c r="C374" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D374" s="5" t="s">
         <v>7</v>
@@ -15550,13 +15571,13 @@
     </row>
     <row r="375">
       <c r="A375" s="5" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B375" s="6">
         <v>8.5</v>
       </c>
       <c r="C375" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D375" s="5" t="s">
         <v>7</v>
@@ -15586,13 +15607,13 @@
     </row>
     <row r="376">
       <c r="A376" s="5" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B376" s="6">
         <v>8.5</v>
       </c>
       <c r="C376" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D376" s="5" t="s">
         <v>7</v>
@@ -15622,13 +15643,13 @@
     </row>
     <row r="377">
       <c r="A377" s="5" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B377" s="6">
         <v>13.9</v>
       </c>
       <c r="C377" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D377" s="5" t="s">
         <v>7</v>
@@ -15658,13 +15679,13 @@
     </row>
     <row r="378">
       <c r="A378" s="5" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B378" s="6">
         <v>13.5</v>
       </c>
       <c r="C378" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D378" s="5" t="s">
         <v>7</v>
@@ -15694,13 +15715,13 @@
     </row>
     <row r="379">
       <c r="A379" s="5" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B379" s="6">
         <v>14.9</v>
       </c>
       <c r="C379" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D379" s="5" t="s">
         <v>7</v>
@@ -15730,13 +15751,13 @@
     </row>
     <row r="380">
       <c r="A380" s="5" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B380" s="6">
         <v>18.2</v>
       </c>
       <c r="C380" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D380" s="5" t="s">
         <v>7</v>
@@ -15766,13 +15787,13 @@
     </row>
     <row r="381">
       <c r="A381" s="5" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B381" s="6">
         <v>11.9</v>
       </c>
       <c r="C381" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D381" s="5" t="s">
         <v>7</v>
@@ -15802,13 +15823,13 @@
     </row>
     <row r="382">
       <c r="A382" s="5" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B382" s="6">
         <v>11.9</v>
       </c>
       <c r="C382" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D382" s="5" t="s">
         <v>7</v>
@@ -15838,13 +15859,13 @@
     </row>
     <row r="383">
       <c r="A383" s="5" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B383" s="6">
         <v>12.0</v>
       </c>
       <c r="C383" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D383" s="5" t="s">
         <v>7</v>
@@ -15874,13 +15895,13 @@
     </row>
     <row r="384">
       <c r="A384" s="5" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B384" s="6">
         <v>11.9</v>
       </c>
       <c r="C384" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D384" s="5" t="s">
         <v>7</v>
@@ -15910,13 +15931,13 @@
     </row>
     <row r="385">
       <c r="A385" s="5" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B385" s="6">
         <v>12.8</v>
       </c>
       <c r="C385" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D385" s="5" t="s">
         <v>7</v>
@@ -15946,13 +15967,13 @@
     </row>
     <row r="386">
       <c r="A386" s="5" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B386" s="6">
         <v>11.8</v>
       </c>
       <c r="C386" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D386" s="5" t="s">
         <v>7</v>
@@ -15982,13 +16003,13 @@
     </row>
     <row r="387">
       <c r="A387" s="5" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B387" s="6">
         <v>13.9</v>
       </c>
       <c r="C387" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D387" s="5" t="s">
         <v>7</v>
@@ -16018,13 +16039,13 @@
     </row>
     <row r="388">
       <c r="A388" s="5" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B388" s="6">
         <v>12.9</v>
       </c>
       <c r="C388" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D388" s="5" t="s">
         <v>7</v>
@@ -16054,13 +16075,13 @@
     </row>
     <row r="389">
       <c r="A389" s="5" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B389" s="6">
         <v>12.9</v>
       </c>
       <c r="C389" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D389" s="5" t="s">
         <v>7</v>
@@ -16090,13 +16111,13 @@
     </row>
     <row r="390">
       <c r="A390" s="5" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B390" s="6">
         <v>12.3</v>
       </c>
       <c r="C390" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D390" s="5" t="s">
         <v>7</v>
@@ -16126,13 +16147,13 @@
     </row>
     <row r="391">
       <c r="A391" s="5" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B391" s="6">
         <v>12.9</v>
       </c>
       <c r="C391" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D391" s="5" t="s">
         <v>7</v>
@@ -16162,13 +16183,13 @@
     </row>
     <row r="392">
       <c r="A392" s="5" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B392" s="6">
         <v>12.9</v>
       </c>
       <c r="C392" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D392" s="5" t="s">
         <v>7</v>
@@ -16198,13 +16219,13 @@
     </row>
     <row r="393">
       <c r="A393" s="5" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B393" s="6">
         <v>12.9</v>
       </c>
       <c r="C393" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D393" s="5" t="s">
         <v>7</v>
@@ -16234,13 +16255,13 @@
     </row>
     <row r="394">
       <c r="A394" s="5" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="B394" s="6">
         <v>12.5</v>
       </c>
       <c r="C394" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D394" s="5" t="s">
         <v>7</v>
@@ -16270,13 +16291,13 @@
     </row>
     <row r="395">
       <c r="A395" s="5" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B395" s="6">
         <v>12.9</v>
       </c>
       <c r="C395" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D395" s="5" t="s">
         <v>7</v>
@@ -16306,13 +16327,13 @@
     </row>
     <row r="396">
       <c r="A396" s="5" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="B396" s="6">
         <v>12.9</v>
       </c>
       <c r="C396" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D396" s="5" t="s">
         <v>7</v>
@@ -16342,13 +16363,13 @@
     </row>
     <row r="397">
       <c r="A397" s="5" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B397" s="6">
         <v>13.9</v>
       </c>
       <c r="C397" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D397" s="5" t="s">
         <v>7</v>
@@ -16378,19 +16399,19 @@
     </row>
     <row r="398">
       <c r="A398" s="5" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="B398" s="6">
         <v>3.9</v>
       </c>
       <c r="C398" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D398" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E398" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
@@ -16416,19 +16437,19 @@
     </row>
     <row r="399">
       <c r="A399" s="5" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B399" s="6">
         <v>4.5</v>
       </c>
       <c r="C399" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D399" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E399" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F399" s="7"/>
       <c r="G399" s="7"/>
@@ -16454,19 +16475,19 @@
     </row>
     <row r="400">
       <c r="A400" s="5" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B400" s="6">
         <v>4.5</v>
       </c>
       <c r="C400" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D400" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E400" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F400" s="7"/>
       <c r="G400" s="7"/>
@@ -16492,19 +16513,19 @@
     </row>
     <row r="401">
       <c r="A401" s="5" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B401" s="6">
         <v>4.5</v>
       </c>
       <c r="C401" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D401" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E401" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F401" s="7"/>
       <c r="G401" s="7"/>
@@ -16530,19 +16551,19 @@
     </row>
     <row r="402">
       <c r="A402" s="5" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="B402" s="6">
         <v>5.0</v>
       </c>
       <c r="C402" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D402" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E402" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F402" s="7"/>
       <c r="G402" s="7"/>
@@ -16568,19 +16589,19 @@
     </row>
     <row r="403">
       <c r="A403" s="5" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B403" s="6">
         <v>3.0</v>
       </c>
       <c r="C403" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D403" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E403" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F403" s="7"/>
       <c r="G403" s="7"/>
@@ -16606,19 +16627,19 @@
     </row>
     <row r="404">
       <c r="A404" s="5" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="B404" s="6">
         <v>5.0</v>
       </c>
       <c r="C404" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D404" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E404" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F404" s="7"/>
       <c r="G404" s="7"/>
@@ -16644,19 +16665,19 @@
     </row>
     <row r="405">
       <c r="A405" s="5" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B405" s="6">
         <v>5.0</v>
       </c>
       <c r="C405" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D405" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E405" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F405" s="7"/>
       <c r="G405" s="7"/>
@@ -16682,19 +16703,19 @@
     </row>
     <row r="406">
       <c r="A406" s="5" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B406" s="6">
         <v>4.5</v>
       </c>
       <c r="C406" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D406" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E406" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F406" s="7"/>
       <c r="G406" s="7"/>
@@ -16720,19 +16741,19 @@
     </row>
     <row r="407">
       <c r="A407" s="5" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B407" s="6">
         <v>5.5</v>
       </c>
       <c r="C407" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D407" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E407" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F407" s="7"/>
       <c r="G407" s="7"/>
@@ -16758,19 +16779,19 @@
     </row>
     <row r="408">
       <c r="A408" s="5" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="B408" s="6">
         <v>5.5</v>
       </c>
       <c r="C408" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D408" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E408" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F408" s="7"/>
       <c r="G408" s="7"/>
@@ -16796,19 +16817,19 @@
     </row>
     <row r="409">
       <c r="A409" s="5" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B409" s="6">
         <v>5.9</v>
       </c>
       <c r="C409" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D409" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E409" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F409" s="7"/>
       <c r="G409" s="7"/>
@@ -16834,19 +16855,19 @@
     </row>
     <row r="410">
       <c r="A410" s="5" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="B410" s="6">
         <v>5.5</v>
       </c>
       <c r="C410" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D410" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E410" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F410" s="7"/>
       <c r="G410" s="7"/>
@@ -16872,19 +16893,19 @@
     </row>
     <row r="411">
       <c r="A411" s="5" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B411" s="6">
         <v>5.9</v>
       </c>
       <c r="C411" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D411" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E411" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F411" s="7"/>
       <c r="G411" s="7"/>
@@ -16910,19 +16931,19 @@
     </row>
     <row r="412">
       <c r="A412" s="5" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="B412" s="6">
         <v>5.9</v>
       </c>
       <c r="C412" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D412" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E412" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F412" s="7"/>
       <c r="G412" s="7"/>
@@ -16948,19 +16969,19 @@
     </row>
     <row r="413">
       <c r="A413" s="5" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B413" s="6">
         <v>4.3</v>
       </c>
       <c r="C413" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D413" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E413" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F413" s="7"/>
       <c r="G413" s="7"/>
@@ -16986,19 +17007,19 @@
     </row>
     <row r="414">
       <c r="A414" s="5" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
       <c r="B414" s="6">
         <v>4.9</v>
       </c>
       <c r="C414" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D414" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E414" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F414" s="7"/>
       <c r="G414" s="7"/>
@@ -17024,19 +17045,19 @@
     </row>
     <row r="415">
       <c r="A415" s="5" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B415" s="6">
         <v>4.9</v>
       </c>
       <c r="C415" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D415" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E415" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F415" s="7"/>
       <c r="G415" s="7"/>
@@ -17062,19 +17083,19 @@
     </row>
     <row r="416">
       <c r="A416" s="5" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="B416" s="6">
         <v>4.9</v>
       </c>
       <c r="C416" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D416" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E416" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F416" s="7"/>
       <c r="G416" s="7"/>
@@ -17100,19 +17121,19 @@
     </row>
     <row r="417">
       <c r="A417" s="5" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B417" s="6">
         <v>4.9</v>
       </c>
       <c r="C417" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D417" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E417" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F417" s="7"/>
       <c r="G417" s="7"/>
@@ -17138,19 +17159,19 @@
     </row>
     <row r="418">
       <c r="A418" s="5" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="B418" s="6">
         <v>3.5</v>
       </c>
       <c r="C418" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D418" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E418" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F418" s="7"/>
       <c r="G418" s="7"/>
@@ -17176,19 +17197,19 @@
     </row>
     <row r="419">
       <c r="A419" s="5" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B419" s="6">
         <v>3.5</v>
       </c>
       <c r="C419" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D419" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E419" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F419" s="7"/>
       <c r="G419" s="7"/>
@@ -17214,19 +17235,19 @@
     </row>
     <row r="420">
       <c r="A420" s="5" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
       <c r="B420" s="6">
         <v>4.9</v>
       </c>
       <c r="C420" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D420" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E420" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F420" s="7"/>
       <c r="G420" s="7"/>
@@ -17252,19 +17273,19 @@
     </row>
     <row r="421">
       <c r="A421" s="5" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B421" s="6">
         <v>4.9</v>
       </c>
       <c r="C421" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D421" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E421" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F421" s="7"/>
       <c r="G421" s="7"/>
@@ -17290,19 +17311,19 @@
     </row>
     <row r="422">
       <c r="A422" s="5" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="B422" s="6">
         <v>4.9</v>
       </c>
       <c r="C422" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D422" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E422" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F422" s="7"/>
       <c r="G422" s="7"/>
@@ -17328,19 +17349,19 @@
     </row>
     <row r="423">
       <c r="A423" s="5" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B423" s="6">
         <v>4.9</v>
       </c>
       <c r="C423" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D423" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E423" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F423" s="7"/>
       <c r="G423" s="7"/>
@@ -17366,19 +17387,19 @@
     </row>
     <row r="424">
       <c r="A424" s="5" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="B424" s="6">
         <v>4.9</v>
       </c>
       <c r="C424" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D424" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E424" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F424" s="7"/>
       <c r="G424" s="7"/>
@@ -17404,19 +17425,19 @@
     </row>
     <row r="425">
       <c r="A425" s="5" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B425" s="6">
         <v>5.9</v>
       </c>
       <c r="C425" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D425" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E425" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F425" s="7"/>
       <c r="G425" s="7"/>
@@ -17442,13 +17463,13 @@
     </row>
     <row r="426">
       <c r="A426" s="5" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="B426" s="6">
         <v>6.95</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D426" s="5" t="s">
         <v>7</v>
@@ -17478,13 +17499,13 @@
     </row>
     <row r="427">
       <c r="A427" s="5" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
       <c r="B427" s="6">
         <v>6.95</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D427" s="5" t="s">
         <v>7</v>
@@ -17514,13 +17535,13 @@
     </row>
     <row r="428">
       <c r="A428" s="5" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B428" s="6">
         <v>6.95</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D428" s="5" t="s">
         <v>7</v>
@@ -17550,19 +17571,19 @@
     </row>
     <row r="429">
       <c r="A429" s="5" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="B429" s="6">
         <v>6.95</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D429" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E429" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F429" s="7"/>
       <c r="G429" s="7"/>
@@ -17588,19 +17609,19 @@
     </row>
     <row r="430">
       <c r="A430" s="5" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B430" s="6">
         <v>6.95</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D430" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E430" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F430" s="7"/>
       <c r="G430" s="7"/>
@@ -17626,19 +17647,19 @@
     </row>
     <row r="431">
       <c r="A431" s="5" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="B431" s="6">
         <v>6.95</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D431" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E431" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F431" s="7"/>
       <c r="G431" s="7"/>
@@ -17664,13 +17685,13 @@
     </row>
     <row r="432">
       <c r="A432" s="5" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B432" s="6">
         <v>9.95</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D432" s="5" t="s">
         <v>7</v>
@@ -17700,13 +17721,13 @@
     </row>
     <row r="433">
       <c r="A433" s="5" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
       <c r="B433" s="6">
         <v>9.95</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D433" s="5" t="s">
         <v>7</v>
@@ -17736,13 +17757,13 @@
     </row>
     <row r="434">
       <c r="A434" s="5" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B434" s="6">
         <v>9.95</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D434" s="5" t="s">
         <v>7</v>
@@ -17772,13 +17793,13 @@
     </row>
     <row r="435">
       <c r="A435" s="5" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="B435" s="6">
         <v>9.95</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D435" s="5" t="s">
         <v>7</v>
@@ -17808,19 +17829,19 @@
     </row>
     <row r="436">
       <c r="A436" s="5" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B436" s="6">
         <v>9.95</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D436" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E436" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F436" s="7"/>
       <c r="G436" s="7"/>
@@ -17846,19 +17867,19 @@
     </row>
     <row r="437">
       <c r="A437" s="5" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="B437" s="6">
         <v>9.95</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D437" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E437" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F437" s="7"/>
       <c r="G437" s="7"/>
@@ -17884,19 +17905,19 @@
     </row>
     <row r="438">
       <c r="A438" s="5" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B438" s="6">
         <v>9.95</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D438" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E438" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F438" s="7"/>
       <c r="G438" s="7"/>
@@ -17922,13 +17943,13 @@
     </row>
     <row r="439">
       <c r="A439" s="5" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="B439" s="6">
         <v>7.95</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D439" s="5" t="s">
         <v>7</v>
@@ -17958,13 +17979,13 @@
     </row>
     <row r="440">
       <c r="A440" s="5" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B440" s="6">
         <v>7.95</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D440" s="5" t="s">
         <v>7</v>
@@ -17994,13 +18015,13 @@
     </row>
     <row r="441">
       <c r="A441" s="5" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="B441" s="6">
         <v>8.95</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D441" s="5" t="s">
         <v>7</v>
@@ -18030,13 +18051,13 @@
     </row>
     <row r="442">
       <c r="A442" s="5" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B442" s="6">
         <v>8.95</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D442" s="5" t="s">
         <v>7</v>
@@ -18066,13 +18087,13 @@
     </row>
     <row r="443">
       <c r="A443" s="5" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B443" s="6">
         <v>9.95</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D443" s="5" t="s">
         <v>7</v>
@@ -18102,13 +18123,13 @@
     </row>
     <row r="444">
       <c r="A444" s="9" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B444" s="6">
         <v>8.95</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D444" s="5" t="s">
         <v>7</v>
@@ -18138,13 +18159,13 @@
     </row>
     <row r="445">
       <c r="A445" s="5" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B445" s="6">
         <v>9.95</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D445" s="5" t="s">
         <v>7</v>
@@ -18174,13 +18195,13 @@
     </row>
     <row r="446">
       <c r="A446" s="5" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B446" s="6">
         <v>5.5</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D446" s="5" t="s">
         <v>7</v>
@@ -18210,13 +18231,13 @@
     </row>
     <row r="447">
       <c r="A447" s="5" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="B447" s="6">
         <v>4.5</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D447" s="5" t="s">
         <v>7</v>
@@ -18246,13 +18267,13 @@
     </row>
     <row r="448">
       <c r="A448" s="5" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B448" s="6">
         <v>5.0</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D448" s="5" t="s">
         <v>7</v>
@@ -18282,13 +18303,13 @@
     </row>
     <row r="449">
       <c r="A449" s="5" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="B449" s="6">
         <v>8.95</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D449" s="5" t="s">
         <v>7</v>
@@ -18318,13 +18339,13 @@
     </row>
     <row r="450">
       <c r="A450" s="5" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B450" s="6">
         <v>8.95</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D450" s="5" t="s">
         <v>7</v>
@@ -18354,13 +18375,13 @@
     </row>
     <row r="451">
       <c r="A451" s="5" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B451" s="6">
         <v>8.95</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D451" s="5" t="s">
         <v>7</v>
@@ -18390,13 +18411,13 @@
     </row>
     <row r="452">
       <c r="A452" s="5" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B452" s="6">
         <v>9.95</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D452" s="5" t="s">
         <v>7</v>
@@ -18426,13 +18447,13 @@
     </row>
     <row r="453">
       <c r="A453" s="5" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="B453" s="6">
         <v>8.95</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D453" s="5" t="s">
         <v>7</v>
@@ -18462,19 +18483,19 @@
     </row>
     <row r="454">
       <c r="A454" s="5" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B454" s="6">
         <v>8.95</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D454" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E454" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F454" s="7"/>
       <c r="G454" s="7"/>
@@ -18500,19 +18521,19 @@
     </row>
     <row r="455">
       <c r="A455" s="5" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B455" s="6">
         <v>8.95</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D455" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E455" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F455" s="7"/>
       <c r="G455" s="7"/>
@@ -18538,19 +18559,19 @@
     </row>
     <row r="456">
       <c r="A456" s="5" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B456" s="6">
         <v>7.95</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D456" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E456" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F456" s="7"/>
       <c r="G456" s="7"/>
@@ -18576,13 +18597,13 @@
     </row>
     <row r="457">
       <c r="A457" s="5" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="B457" s="6">
         <v>7.95</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D457" s="5" t="s">
         <v>7</v>
@@ -18612,13 +18633,13 @@
     </row>
     <row r="458">
       <c r="A458" s="5" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B458" s="6">
         <v>7.95</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D458" s="5" t="s">
         <v>7</v>
@@ -18648,13 +18669,13 @@
     </row>
     <row r="459">
       <c r="A459" s="5" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="B459" s="6">
         <v>7.95</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D459" s="5" t="s">
         <v>7</v>
@@ -18684,13 +18705,13 @@
     </row>
     <row r="460">
       <c r="A460" s="5" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B460" s="6">
         <v>7.95</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D460" s="5" t="s">
         <v>7</v>
@@ -18720,19 +18741,19 @@
     </row>
     <row r="461">
       <c r="A461" s="5" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B461" s="6">
         <v>7.95</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D461" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E461" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F461" s="7"/>
       <c r="G461" s="7"/>
@@ -18758,19 +18779,19 @@
     </row>
     <row r="462">
       <c r="A462" s="5" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B462" s="6">
         <v>7.95</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D462" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E462" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F462" s="7"/>
       <c r="G462" s="7"/>
@@ -18796,13 +18817,13 @@
     </row>
     <row r="463">
       <c r="A463" s="5" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B463" s="6">
         <v>8.95</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D463" s="5" t="s">
         <v>7</v>
@@ -18832,13 +18853,13 @@
     </row>
     <row r="464">
       <c r="A464" s="5" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B464" s="6">
         <v>9.95</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D464" s="5" t="s">
         <v>7</v>
@@ -18868,13 +18889,13 @@
     </row>
     <row r="465">
       <c r="A465" s="5" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B465" s="6">
         <v>9.95</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D465" s="5" t="s">
         <v>7</v>
@@ -18904,13 +18925,13 @@
     </row>
     <row r="466">
       <c r="A466" s="5" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B466" s="6">
         <v>10.95</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D466" s="5" t="s">
         <v>7</v>
@@ -18940,13 +18961,13 @@
     </row>
     <row r="467">
       <c r="A467" s="5" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B467" s="6">
         <v>10.95</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D467" s="5" t="s">
         <v>7</v>
@@ -18976,13 +18997,13 @@
     </row>
     <row r="468">
       <c r="A468" s="5" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="B468" s="6">
         <v>10.95</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D468" s="5" t="s">
         <v>7</v>
@@ -19012,19 +19033,19 @@
     </row>
     <row r="469">
       <c r="A469" s="5" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B469" s="6">
         <v>10.95</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D469" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E469" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F469" s="7"/>
       <c r="G469" s="7"/>
@@ -19050,19 +19071,19 @@
     </row>
     <row r="470">
       <c r="A470" s="5" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B470" s="6">
         <v>10.95</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D470" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E470" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F470" s="7"/>
       <c r="G470" s="7"/>
@@ -19088,19 +19109,19 @@
     </row>
     <row r="471">
       <c r="A471" s="5" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="B471" s="6">
         <v>10.95</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="D471" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E471" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F471" s="7"/>
       <c r="G471" s="7"/>
@@ -34242,22 +34263,22 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -34286,22 +34307,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -34326,25 +34347,25 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -34369,25 +34390,25 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="C4" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>509</v>
-      </c>
       <c r="F4" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -34412,25 +34433,25 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>520</v>
+        <v>527</v>
       </c>
       <c r="C5" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E5" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D5" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>509</v>
-      </c>
       <c r="F5" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -34455,25 +34476,25 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="C6" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>509</v>
-      </c>
       <c r="F6" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -34498,25 +34519,25 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E7" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D7" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>509</v>
-      </c>
       <c r="F7" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -34541,25 +34562,25 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C8" s="14" t="s">
         <v>523</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>509</v>
-      </c>
       <c r="F8" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -34584,25 +34605,25 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B9" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D9" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>509</v>
-      </c>
       <c r="F9" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -34627,25 +34648,25 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>518</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -34670,25 +34691,25 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>525</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>526</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>509</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>519</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -34713,25 +34734,25 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="C12" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>509</v>
-      </c>
       <c r="F12" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -34756,25 +34777,25 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="C13" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>509</v>
-      </c>
       <c r="F13" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -34799,25 +34820,25 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="C14" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E14" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>509</v>
-      </c>
       <c r="F14" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -34842,25 +34863,25 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="C15" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E15" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>509</v>
-      </c>
       <c r="F15" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -34885,25 +34906,25 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C16" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E16" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>509</v>
-      </c>
       <c r="F16" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -34928,25 +34949,25 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="C17" s="14" t="s">
+        <v>523</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E17" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>517</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>509</v>
-      </c>
       <c r="F17" s="14" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -34971,25 +34992,25 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -35014,25 +35035,25 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>

--- a/ImportDB/Utown Food Menu Dataset.xlsx
+++ b/ImportDB/Utown Food Menu Dataset.xlsx
@@ -1187,7 +1187,7 @@
     <t>Bandung</t>
   </si>
   <si>
-    <t>gs://orbitaroundfood.appspot.com/bandung.jpeg</t>
+    <t>gs://orbitaroundfood.appspot.com/bandung.jpg</t>
   </si>
   <si>
     <t>Fresh Soya Bean</t>
@@ -14949,7 +14949,7 @@
       <c r="C358" s="5" t="s">
         <v>380</v>
       </c>
-      <c r="D358" s="5" t="s">
+      <c r="D358" s="8" t="s">
         <v>391</v>
       </c>
       <c r="E358" s="5" t="s">

--- a/ImportDB/Utown Food Menu Dataset.xlsx
+++ b/ImportDB/Utown Food Menu Dataset.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1649" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="551">
   <si>
     <t>FoodName</t>
   </si>
@@ -80,6 +80,9 @@
     <t>Samgye Tang (half) (Half Ginseng chicken soup)</t>
   </si>
   <si>
+    <t>healthy</t>
+  </si>
+  <si>
     <t>Kimchi JiGae (Kimchi soup)</t>
   </si>
   <si>
@@ -137,10 +140,16 @@
     <t>TA05 Vegetables Tempura</t>
   </si>
   <si>
+    <t>vegetarian</t>
+  </si>
+  <si>
     <t>TA06 Prawn Tempura</t>
   </si>
   <si>
     <t>TA07 Edamame (soybeans in the pod)</t>
+  </si>
+  <si>
+    <t>vegetarian, healthy</t>
   </si>
   <si>
     <t>TA08 Crispy Chicken with Wasabi Mayonnaise Dip</t>
@@ -671,9 +680,6 @@
     <t>utown_fine food_thai street food</t>
   </si>
   <si>
-    <t>vegetarian, halal</t>
-  </si>
-  <si>
     <t>Pineapple Fried Rice Set / (V) (with Seafood add $1)</t>
   </si>
   <si>
@@ -696,9 +702,6 @@
   </si>
   <si>
     <t>gs://orbitaroundfood.appspot.com/tom_yum_seafood_soup.jpg</t>
-  </si>
-  <si>
-    <t>halal</t>
   </si>
   <si>
     <t>Tom Yum Chicken Soup Rice</t>
@@ -974,9 +977,6 @@
     <t>Veg Chapathi Set</t>
   </si>
   <si>
-    <t>vegetarian</t>
-  </si>
-  <si>
     <t>Chicken Chapathi Set</t>
   </si>
   <si>
@@ -1214,10 +1214,19 @@
     <t>utown_the royals bistro</t>
   </si>
   <si>
+    <t>halal, healthy</t>
+  </si>
+  <si>
     <t>Fried Chicken Wings (6 pieces, combination of mid-joints &amp; drumlets) + Sweet Thai Chilli</t>
   </si>
   <si>
+    <t>halal</t>
+  </si>
+  <si>
     <t>Crispy Fries - thick cut</t>
+  </si>
+  <si>
+    <t>vegetarian, halal</t>
   </si>
   <si>
     <t>Crispy Fries - twister</t>
@@ -1981,9 +1990,9 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="42.86"/>
-    <col customWidth="1" min="2" max="2" width="17.57"/>
+    <col customWidth="1" hidden="1" min="2" max="2" width="17.57"/>
     <col customWidth="1" min="3" max="3" width="41.86"/>
-    <col customWidth="1" min="4" max="4" width="39.14"/>
+    <col customWidth="1" hidden="1" min="4" max="4" width="39.14"/>
     <col customWidth="1" min="5" max="5" width="58.0"/>
   </cols>
   <sheetData>
@@ -2505,7 +2514,9 @@
       <c r="D15" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
@@ -2530,7 +2541,7 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B16" s="6">
         <v>5.0</v>
@@ -2566,7 +2577,7 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" s="6">
         <v>5.0</v>
@@ -2602,7 +2613,7 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" s="6">
         <v>5.0</v>
@@ -2613,7 +2624,9 @@
       <c r="D18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -2638,7 +2651,7 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B19" s="6">
         <v>6.0</v>
@@ -2649,7 +2662,9 @@
       <c r="D19" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="7"/>
+      <c r="E19" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -2674,7 +2689,7 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B20" s="6">
         <v>5.0</v>
@@ -2710,7 +2725,7 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B21" s="6">
         <v>5.5</v>
@@ -2746,7 +2761,7 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B22" s="6">
         <v>5.8</v>
@@ -2782,7 +2797,7 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B23" s="6">
         <v>3.0</v>
@@ -2818,7 +2833,7 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B24" s="6">
         <v>3.5</v>
@@ -2854,7 +2869,7 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B25" s="6">
         <v>4.0</v>
@@ -2890,7 +2905,7 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="6">
         <v>4.0</v>
@@ -2926,7 +2941,7 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B27" s="6">
         <v>5.8</v>
@@ -2962,7 +2977,7 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="6">
         <v>5.5</v>
@@ -2997,13 +3012,13 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="6">
         <v>3.0</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>7</v>
@@ -3033,13 +3048,13 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B30" s="6">
         <v>3.0</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>7</v>
@@ -3069,13 +3084,13 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B31" s="6">
         <v>4.7</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>7</v>
@@ -3105,13 +3120,13 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B32" s="6">
         <v>5.7</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>7</v>
@@ -3141,18 +3156,20 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B33" s="6">
         <v>6.2</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D33" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
@@ -3177,13 +3194,13 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B34" s="6">
         <v>10.9</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>7</v>
@@ -3213,18 +3230,20 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B35" s="6">
         <v>3.8</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
@@ -3249,13 +3268,13 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B36" s="6">
         <v>6.2</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>7</v>
@@ -3285,13 +3304,13 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B37" s="6">
         <v>5.2</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>7</v>
@@ -3321,18 +3340,20 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B38" s="6">
         <v>2.4</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
@@ -3357,13 +3378,13 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B39" s="6">
         <v>8.5</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>7</v>
@@ -3393,13 +3414,13 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B40" s="6">
         <v>8.5</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>7</v>
@@ -3429,13 +3450,13 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B41" s="6">
         <v>8.5</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>7</v>
@@ -3465,13 +3486,13 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B42" s="6">
         <v>10.9</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>7</v>
@@ -3501,13 +3522,13 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B43" s="6">
         <v>10.0</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>7</v>
@@ -3537,13 +3558,13 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B44" s="6">
         <v>10.0</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D44" s="5" t="s">
         <v>7</v>
@@ -3573,13 +3594,13 @@
     </row>
     <row r="45">
       <c r="A45" s="5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B45" s="6">
         <v>9.5</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D45" s="5" t="s">
         <v>7</v>
@@ -3609,13 +3630,13 @@
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B46" s="6">
         <v>9.5</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>7</v>
@@ -3645,13 +3666,13 @@
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B47" s="6">
         <v>10.5</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>7</v>
@@ -3681,13 +3702,13 @@
     </row>
     <row r="48">
       <c r="A48" s="5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B48" s="6">
         <v>11.0</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>7</v>
@@ -3717,13 +3738,13 @@
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B49" s="6">
         <v>9.0</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>7</v>
@@ -3753,13 +3774,13 @@
     </row>
     <row r="50">
       <c r="A50" s="5" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B50" s="6">
         <v>10.0</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>7</v>
@@ -3789,13 +3810,13 @@
     </row>
     <row r="51">
       <c r="A51" s="5" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B51" s="6">
         <v>9.5</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>7</v>
@@ -3825,13 +3846,13 @@
     </row>
     <row r="52">
       <c r="A52" s="5" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B52" s="6">
         <v>9.0</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>7</v>
@@ -3861,13 +3882,13 @@
     </row>
     <row r="53">
       <c r="A53" s="5" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B53" s="6">
         <v>8.5</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D53" s="5" t="s">
         <v>7</v>
@@ -3897,13 +3918,13 @@
     </row>
     <row r="54">
       <c r="A54" s="5" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B54" s="6">
         <v>8.5</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>7</v>
@@ -3933,13 +3954,13 @@
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B55" s="6">
         <v>8.5</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D55" s="5" t="s">
         <v>7</v>
@@ -3969,13 +3990,13 @@
     </row>
     <row r="56">
       <c r="A56" s="5" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B56" s="6">
         <v>9.5</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D56" s="5" t="s">
         <v>7</v>
@@ -4005,13 +4026,13 @@
     </row>
     <row r="57">
       <c r="A57" s="5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B57" s="6">
         <v>8.5</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D57" s="5" t="s">
         <v>7</v>
@@ -4041,13 +4062,13 @@
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B58" s="6">
         <v>9.0</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D58" s="5" t="s">
         <v>7</v>
@@ -4077,13 +4098,13 @@
     </row>
     <row r="59">
       <c r="A59" s="5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B59" s="6">
         <v>9.0</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>7</v>
@@ -4113,13 +4134,13 @@
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B60" s="6">
         <v>9.5</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>7</v>
@@ -4149,13 +4170,13 @@
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B61" s="6">
         <v>6.0</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>7</v>
@@ -4185,13 +4206,13 @@
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B62" s="6">
         <v>5.0</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>7</v>
@@ -4221,13 +4242,13 @@
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B63" s="6">
         <v>5.5</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>7</v>
@@ -4257,13 +4278,13 @@
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B64" s="6">
         <v>2.5</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>7</v>
@@ -4293,13 +4314,13 @@
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B65" s="6">
         <v>2.5</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>7</v>
@@ -4329,13 +4350,13 @@
     </row>
     <row r="66">
       <c r="A66" s="5" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B66" s="6">
         <v>2.5</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>7</v>
@@ -4365,13 +4386,13 @@
     </row>
     <row r="67">
       <c r="A67" s="5" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B67" s="6">
         <v>2.0</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>7</v>
@@ -4401,13 +4422,13 @@
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B68" s="6">
         <v>2.0</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>7</v>
@@ -4437,13 +4458,13 @@
     </row>
     <row r="69">
       <c r="A69" s="5" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B69" s="6">
         <v>2.0</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>7</v>
@@ -4473,13 +4494,13 @@
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B70" s="6">
         <v>9.0</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>7</v>
@@ -4509,13 +4530,13 @@
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B71" s="6">
         <v>8.5</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>7</v>
@@ -4545,13 +4566,13 @@
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B72" s="6">
         <v>8.5</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>7</v>
@@ -4581,13 +4602,13 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B73" s="6">
         <v>5.0</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D73" s="5" t="s">
         <v>7</v>
@@ -4617,13 +4638,13 @@
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B74" s="6">
         <v>8.5</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>7</v>
@@ -4653,13 +4674,13 @@
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B75" s="6">
         <v>6.5</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>7</v>
@@ -4689,13 +4710,13 @@
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B76" s="6">
         <v>8.0</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>7</v>
@@ -4725,13 +4746,13 @@
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B77" s="6">
         <v>5.5</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>7</v>
@@ -4761,13 +4782,13 @@
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B78" s="6">
         <v>4.5</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>7</v>
@@ -4797,16 +4818,16 @@
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B79" s="6">
         <v>9.0</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
@@ -4833,13 +4854,13 @@
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B80" s="6">
         <v>4.5</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>7</v>
@@ -4869,13 +4890,13 @@
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B81" s="6">
         <v>3.5</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>7</v>
@@ -4905,13 +4926,13 @@
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B82" s="6">
         <v>3.0</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>7</v>
@@ -4941,13 +4962,13 @@
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B83" s="6">
         <v>3.0</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>7</v>
@@ -4977,13 +4998,13 @@
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B84" s="6">
         <v>6.5</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>7</v>
@@ -5013,13 +5034,13 @@
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B85" s="6">
         <v>4.0</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>7</v>
@@ -5049,18 +5070,20 @@
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B86" s="6">
         <v>3.0</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E86" s="7"/>
+      <c r="E86" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
@@ -5085,18 +5108,20 @@
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B87" s="6">
         <v>3.5</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E87" s="7"/>
+      <c r="E87" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
@@ -5121,18 +5146,20 @@
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B88" s="6">
         <v>3.5</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E88" s="7"/>
+      <c r="E88" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
@@ -5157,13 +5184,13 @@
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B89" s="6">
         <v>2.5</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D89" s="5" t="s">
         <v>7</v>
@@ -5193,13 +5220,13 @@
     </row>
     <row r="90">
       <c r="A90" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B90" s="6">
         <v>10.5</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D90" s="5" t="s">
         <v>7</v>
@@ -5229,13 +5256,13 @@
     </row>
     <row r="91">
       <c r="A91" s="5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B91" s="6">
         <v>9.5</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D91" s="5" t="s">
         <v>7</v>
@@ -5265,13 +5292,13 @@
     </row>
     <row r="92">
       <c r="A92" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B92" s="6">
         <v>10.5</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D92" s="5" t="s">
         <v>7</v>
@@ -5301,13 +5328,13 @@
     </row>
     <row r="93">
       <c r="A93" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B93" s="6">
         <v>9.5</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D93" s="5" t="s">
         <v>7</v>
@@ -5337,13 +5364,13 @@
     </row>
     <row r="94">
       <c r="A94" s="5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B94" s="6">
         <v>9.5</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D94" s="5" t="s">
         <v>7</v>
@@ -5373,13 +5400,13 @@
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B95" s="6">
         <v>9.5</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D95" s="5" t="s">
         <v>7</v>
@@ -5409,13 +5436,13 @@
     </row>
     <row r="96">
       <c r="A96" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B96" s="6">
         <v>7.5</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D96" s="5" t="s">
         <v>7</v>
@@ -5445,13 +5472,13 @@
     </row>
     <row r="97">
       <c r="A97" s="5" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B97" s="6">
         <v>8.0</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D97" s="5" t="s">
         <v>7</v>
@@ -5481,13 +5508,13 @@
     </row>
     <row r="98">
       <c r="A98" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B98" s="6">
         <v>6.5</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D98" s="5" t="s">
         <v>7</v>
@@ -5517,13 +5544,13 @@
     </row>
     <row r="99">
       <c r="A99" s="5" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B99" s="6">
         <v>6.5</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D99" s="5" t="s">
         <v>7</v>
@@ -5553,13 +5580,13 @@
     </row>
     <row r="100">
       <c r="A100" s="5" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B100" s="6">
         <v>4.5</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D100" s="5" t="s">
         <v>7</v>
@@ -5589,13 +5616,13 @@
     </row>
     <row r="101">
       <c r="A101" s="5" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B101" s="6">
         <v>7.0</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D101" s="5" t="s">
         <v>7</v>
@@ -5625,13 +5652,13 @@
     </row>
     <row r="102">
       <c r="A102" s="5" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B102" s="6">
         <v>7.5</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D102" s="5" t="s">
         <v>7</v>
@@ -5661,13 +5688,13 @@
     </row>
     <row r="103">
       <c r="A103" s="5" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B103" s="6">
         <v>7.5</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D103" s="5" t="s">
         <v>7</v>
@@ -5697,13 +5724,13 @@
     </row>
     <row r="104">
       <c r="A104" s="5" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B104" s="6">
         <v>9.0</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D104" s="5" t="s">
         <v>7</v>
@@ -5733,13 +5760,13 @@
     </row>
     <row r="105">
       <c r="A105" s="5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B105" s="6">
         <v>8.0</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D105" s="5" t="s">
         <v>7</v>
@@ -5769,13 +5796,13 @@
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B106" s="6">
         <v>8.0</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D106" s="5" t="s">
         <v>7</v>
@@ -5805,13 +5832,13 @@
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B107" s="6">
         <v>8.0</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D107" s="5" t="s">
         <v>7</v>
@@ -5841,13 +5868,13 @@
     </row>
     <row r="108">
       <c r="A108" s="5" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B108" s="6">
         <v>8.5</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D108" s="5" t="s">
         <v>7</v>
@@ -5877,13 +5904,13 @@
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B109" s="6">
         <v>8.0</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D109" s="5" t="s">
         <v>7</v>
@@ -5913,13 +5940,13 @@
     </row>
     <row r="110">
       <c r="A110" s="5" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="B110" s="6">
         <v>5.0</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D110" s="5" t="s">
         <v>7</v>
@@ -5949,13 +5976,13 @@
     </row>
     <row r="111">
       <c r="A111" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B111" s="6">
         <v>5.0</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D111" s="5" t="s">
         <v>7</v>
@@ -5985,13 +6012,13 @@
     </row>
     <row r="112">
       <c r="A112" s="5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B112" s="6">
         <v>5.0</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D112" s="5" t="s">
         <v>7</v>
@@ -6021,13 +6048,13 @@
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B113" s="6">
         <v>4.8</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D113" s="5" t="s">
         <v>7</v>
@@ -6057,13 +6084,13 @@
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B114" s="6">
         <v>4.8</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D114" s="5" t="s">
         <v>7</v>
@@ -6093,13 +6120,13 @@
     </row>
     <row r="115">
       <c r="A115" s="5" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B115" s="6">
         <v>5.5</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D115" s="5" t="s">
         <v>7</v>
@@ -6129,13 +6156,13 @@
     </row>
     <row r="116">
       <c r="A116" s="5" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B116" s="6">
         <v>5.5</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D116" s="5" t="s">
         <v>7</v>
@@ -6165,18 +6192,20 @@
     </row>
     <row r="117">
       <c r="A117" s="5" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B117" s="6">
         <v>4.5</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D117" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E117" s="7"/>
+      <c r="E117" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
@@ -6201,18 +6230,20 @@
     </row>
     <row r="118">
       <c r="A118" s="5" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="B118" s="6">
         <v>5.5</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D118" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E118" s="7"/>
+      <c r="E118" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
@@ -6237,13 +6268,13 @@
     </row>
     <row r="119">
       <c r="A119" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B119" s="6">
         <v>5.5</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D119" s="5" t="s">
         <v>7</v>
@@ -6273,13 +6304,13 @@
     </row>
     <row r="120">
       <c r="A120" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B120" s="6">
         <v>4.5</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D120" s="5" t="s">
         <v>7</v>
@@ -6309,13 +6340,13 @@
     </row>
     <row r="121">
       <c r="A121" s="5" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B121" s="6">
         <v>4.3</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D121" s="5" t="s">
         <v>7</v>
@@ -6345,13 +6376,13 @@
     </row>
     <row r="122">
       <c r="A122" s="5" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B122" s="6">
         <v>4.5</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D122" s="5" t="s">
         <v>7</v>
@@ -6381,13 +6412,13 @@
     </row>
     <row r="123">
       <c r="A123" s="5" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B123" s="6">
         <v>5.2</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D123" s="5" t="s">
         <v>7</v>
@@ -6417,18 +6448,20 @@
     </row>
     <row r="124">
       <c r="A124" s="5" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B124" s="6">
         <v>5.0</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D124" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E124" s="7"/>
+      <c r="E124" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
@@ -6453,13 +6486,13 @@
     </row>
     <row r="125">
       <c r="A125" s="5" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B125" s="6">
         <v>6.0</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D125" s="5" t="s">
         <v>7</v>
@@ -6489,13 +6522,13 @@
     </row>
     <row r="126">
       <c r="A126" s="5" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B126" s="6">
         <v>5.2</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D126" s="5" t="s">
         <v>7</v>
@@ -6525,13 +6558,13 @@
     </row>
     <row r="127">
       <c r="A127" s="5" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="B127" s="6">
         <v>5.2</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D127" s="5" t="s">
         <v>7</v>
@@ -6561,13 +6594,13 @@
     </row>
     <row r="128">
       <c r="A128" s="5" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B128" s="6">
         <v>6.0</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D128" s="5" t="s">
         <v>7</v>
@@ -6597,13 +6630,13 @@
     </row>
     <row r="129">
       <c r="A129" s="5" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B129" s="6">
         <v>5.2</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D129" s="5" t="s">
         <v>7</v>
@@ -6633,13 +6666,13 @@
     </row>
     <row r="130">
       <c r="A130" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B130" s="6">
         <v>5.0</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D130" s="5" t="s">
         <v>7</v>
@@ -6669,13 +6702,13 @@
     </row>
     <row r="131">
       <c r="A131" s="5" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B131" s="6">
         <v>5.5</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D131" s="5" t="s">
         <v>7</v>
@@ -6705,13 +6738,13 @@
     </row>
     <row r="132">
       <c r="A132" s="5" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B132" s="6">
         <v>3.5</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D132" s="5" t="s">
         <v>7</v>
@@ -6741,13 +6774,13 @@
     </row>
     <row r="133">
       <c r="A133" s="5" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B133" s="6">
         <v>3.0</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D133" s="5" t="s">
         <v>7</v>
@@ -6777,13 +6810,13 @@
     </row>
     <row r="134">
       <c r="A134" s="5" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B134" s="6">
         <v>3.0</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D134" s="5" t="s">
         <v>7</v>
@@ -6813,13 +6846,13 @@
     </row>
     <row r="135">
       <c r="A135" s="5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B135" s="6">
         <v>4.3</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D135" s="5" t="s">
         <v>7</v>
@@ -6849,16 +6882,16 @@
     </row>
     <row r="136">
       <c r="A136" s="5" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B136" s="6">
         <v>3.0</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D136" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E136" s="7"/>
       <c r="F136" s="7"/>
@@ -6885,13 +6918,13 @@
     </row>
     <row r="137">
       <c r="A137" s="5" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B137" s="6">
         <v>3.0</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D137" s="5" t="s">
         <v>7</v>
@@ -6921,13 +6954,13 @@
     </row>
     <row r="138">
       <c r="A138" s="5" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B138" s="6">
         <v>3.0</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D138" s="5" t="s">
         <v>7</v>
@@ -6957,13 +6990,13 @@
     </row>
     <row r="139">
       <c r="A139" s="5" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B139" s="6">
         <v>3.0</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D139" s="5" t="s">
         <v>7</v>
@@ -6993,13 +7026,13 @@
     </row>
     <row r="140">
       <c r="A140" s="5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B140" s="6">
         <v>3.0</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D140" s="5" t="s">
         <v>7</v>
@@ -7029,13 +7062,13 @@
     </row>
     <row r="141">
       <c r="A141" s="5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B141" s="6">
         <v>3.0</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D141" s="5" t="s">
         <v>7</v>
@@ -7065,13 +7098,13 @@
     </row>
     <row r="142">
       <c r="A142" s="5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B142" s="6">
         <v>3.5</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D142" s="5" t="s">
         <v>7</v>
@@ -7101,13 +7134,13 @@
     </row>
     <row r="143">
       <c r="A143" s="5" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B143" s="6">
         <v>3.5</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D143" s="5" t="s">
         <v>7</v>
@@ -7137,18 +7170,20 @@
     </row>
     <row r="144">
       <c r="A144" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B144" s="6">
         <v>3.0</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D144" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E144" s="7"/>
+      <c r="E144" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F144" s="7"/>
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
@@ -7173,13 +7208,13 @@
     </row>
     <row r="145">
       <c r="A145" s="5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B145" s="6">
         <v>4.0</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D145" s="5" t="s">
         <v>7</v>
@@ -7209,18 +7244,20 @@
     </row>
     <row r="146">
       <c r="A146" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B146" s="6">
         <v>5.5</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D146" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E146" s="7"/>
+      <c r="E146" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F146" s="7"/>
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
@@ -7245,18 +7282,20 @@
     </row>
     <row r="147">
       <c r="A147" s="5" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="B147" s="6">
         <v>5.5</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D147" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E147" s="7"/>
+      <c r="E147" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F147" s="7"/>
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
@@ -7281,18 +7320,20 @@
     </row>
     <row r="148">
       <c r="A148" s="5" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B148" s="6">
         <v>5.0</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D148" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E148" s="7"/>
+      <c r="E148" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F148" s="7"/>
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
@@ -7317,18 +7358,20 @@
     </row>
     <row r="149">
       <c r="A149" s="5" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B149" s="6">
         <v>5.0</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D149" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E149" s="7"/>
+      <c r="E149" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F149" s="7"/>
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
@@ -7353,18 +7396,20 @@
     </row>
     <row r="150">
       <c r="A150" s="5" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B150" s="6">
         <v>5.0</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D150" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E150" s="7"/>
+      <c r="E150" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F150" s="7"/>
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
@@ -7389,18 +7434,20 @@
     </row>
     <row r="151">
       <c r="A151" s="5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B151" s="6">
         <v>4.5</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D151" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E151" s="7"/>
+      <c r="E151" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F151" s="7"/>
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
@@ -7425,13 +7472,13 @@
     </row>
     <row r="152">
       <c r="A152" s="5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B152" s="6">
         <v>5.0</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D152" s="5" t="s">
         <v>7</v>
@@ -7461,18 +7508,20 @@
     </row>
     <row r="153">
       <c r="A153" s="5" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B153" s="6">
         <v>5.0</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D153" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E153" s="7"/>
+      <c r="E153" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F153" s="7"/>
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
@@ -7497,18 +7546,20 @@
     </row>
     <row r="154">
       <c r="A154" s="5" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B154" s="6">
         <v>5.0</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D154" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E154" s="7"/>
+      <c r="E154" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F154" s="7"/>
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
@@ -7533,18 +7584,20 @@
     </row>
     <row r="155">
       <c r="A155" s="5" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="B155" s="6">
         <v>5.0</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D155" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E155" s="7"/>
+      <c r="E155" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F155" s="7"/>
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
@@ -7569,13 +7622,13 @@
     </row>
     <row r="156">
       <c r="A156" s="5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D156" s="5" t="s">
         <v>7</v>
@@ -7605,13 +7658,13 @@
     </row>
     <row r="157">
       <c r="A157" s="5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B157" s="6">
         <v>5.0</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D157" s="5" t="s">
         <v>7</v>
@@ -7641,13 +7694,13 @@
     </row>
     <row r="158">
       <c r="A158" s="5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="B158" s="6">
         <v>8.0</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D158" s="5" t="s">
         <v>7</v>
@@ -7677,13 +7730,13 @@
     </row>
     <row r="159">
       <c r="A159" s="5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="B159" s="6">
         <v>15.0</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D159" s="5" t="s">
         <v>7</v>
@@ -7713,13 +7766,13 @@
     </row>
     <row r="160">
       <c r="A160" s="5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B160" s="6">
         <v>8.0</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D160" s="5" t="s">
         <v>7</v>
@@ -7749,13 +7802,13 @@
     </row>
     <row r="161">
       <c r="A161" s="5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B161" s="6">
         <v>6.0</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D161" s="5" t="s">
         <v>7</v>
@@ -7785,13 +7838,13 @@
     </row>
     <row r="162">
       <c r="A162" s="5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B162" s="6">
         <v>5.0</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D162" s="5" t="s">
         <v>7</v>
@@ -7821,13 +7874,13 @@
     </row>
     <row r="163">
       <c r="A163" s="5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="B163" s="6">
         <v>5.0</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D163" s="5" t="s">
         <v>7</v>
@@ -7857,13 +7910,13 @@
     </row>
     <row r="164">
       <c r="A164" s="5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="B164" s="6">
         <v>4.0</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D164" s="5" t="s">
         <v>7</v>
@@ -7893,13 +7946,13 @@
     </row>
     <row r="165">
       <c r="A165" s="5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B165" s="6">
         <v>5.0</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D165" s="5" t="s">
         <v>7</v>
@@ -7929,13 +7982,13 @@
     </row>
     <row r="166">
       <c r="A166" s="5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B166" s="6">
         <v>4.5</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D166" s="5" t="s">
         <v>7</v>
@@ -7965,13 +8018,13 @@
     </row>
     <row r="167">
       <c r="A167" s="5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B167" s="6">
         <v>4.0</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>7</v>
@@ -8001,13 +8054,13 @@
     </row>
     <row r="168">
       <c r="A168" s="5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B168" s="6">
         <v>4.0</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D168" s="5" t="s">
         <v>7</v>
@@ -8037,13 +8090,13 @@
     </row>
     <row r="169">
       <c r="A169" s="5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B169" s="6">
         <v>5.0</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D169" s="5" t="s">
         <v>7</v>
@@ -8073,13 +8126,13 @@
     </row>
     <row r="170">
       <c r="A170" s="5" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B170" s="6">
         <v>4.0</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D170" s="5" t="s">
         <v>7</v>
@@ -8109,13 +8162,13 @@
     </row>
     <row r="171">
       <c r="A171" s="5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B171" s="6">
         <v>5.0</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D171" s="5" t="s">
         <v>7</v>
@@ -8145,13 +8198,13 @@
     </row>
     <row r="172">
       <c r="A172" s="5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B172" s="6">
         <v>4.5</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D172" s="5" t="s">
         <v>7</v>
@@ -8181,13 +8234,13 @@
     </row>
     <row r="173">
       <c r="A173" s="5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B173" s="6">
         <v>5.0</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D173" s="5" t="s">
         <v>7</v>
@@ -8217,13 +8270,13 @@
     </row>
     <row r="174">
       <c r="A174" s="5" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B174" s="6">
         <v>4.0</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D174" s="5" t="s">
         <v>7</v>
@@ -8253,13 +8306,13 @@
     </row>
     <row r="175">
       <c r="A175" s="5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="B175" s="6">
         <v>4.0</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D175" s="5" t="s">
         <v>7</v>
@@ -8289,13 +8342,13 @@
     </row>
     <row r="176">
       <c r="A176" s="5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B176" s="6">
         <v>4.0</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D176" s="5" t="s">
         <v>7</v>
@@ -8325,13 +8378,13 @@
     </row>
     <row r="177">
       <c r="A177" s="5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B177" s="6">
         <v>5.0</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D177" s="5" t="s">
         <v>7</v>
@@ -8361,13 +8414,13 @@
     </row>
     <row r="178">
       <c r="A178" s="5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B178" s="6">
         <v>5.0</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D178" s="5" t="s">
         <v>7</v>
@@ -8397,13 +8450,13 @@
     </row>
     <row r="179">
       <c r="A179" s="5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B179" s="6">
         <v>3.0</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D179" s="5" t="s">
         <v>7</v>
@@ -8433,13 +8486,13 @@
     </row>
     <row r="180">
       <c r="A180" s="5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B180" s="6">
         <v>5.0</v>
       </c>
       <c r="C180" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D180" s="5" t="s">
         <v>7</v>
@@ -8469,13 +8522,13 @@
     </row>
     <row r="181">
       <c r="A181" s="5" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B181" s="6">
         <v>1.5</v>
       </c>
       <c r="C181" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D181" s="5" t="s">
         <v>7</v>
@@ -8505,13 +8558,13 @@
     </row>
     <row r="182">
       <c r="A182" s="5" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B182" s="6">
         <v>4.5</v>
       </c>
       <c r="C182" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D182" s="5" t="s">
         <v>7</v>
@@ -8541,13 +8594,13 @@
     </row>
     <row r="183">
       <c r="A183" s="5" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B183" s="6">
         <v>4.0</v>
       </c>
       <c r="C183" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D183" s="5" t="s">
         <v>7</v>
@@ -8577,13 +8630,13 @@
     </row>
     <row r="184">
       <c r="A184" s="5" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="B184" s="6">
         <v>4.3</v>
       </c>
       <c r="C184" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D184" s="5" t="s">
         <v>7</v>
@@ -8613,13 +8666,13 @@
     </row>
     <row r="185">
       <c r="A185" s="5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B185" s="6">
         <v>4.0</v>
       </c>
       <c r="C185" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D185" s="5" t="s">
         <v>7</v>
@@ -8649,13 +8702,13 @@
     </row>
     <row r="186">
       <c r="A186" s="5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B186" s="6">
         <v>4.3</v>
       </c>
       <c r="C186" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D186" s="5" t="s">
         <v>7</v>
@@ -8685,13 +8738,13 @@
     </row>
     <row r="187">
       <c r="A187" s="5" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B187" s="6">
         <v>4.5</v>
       </c>
       <c r="C187" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D187" s="5" t="s">
         <v>7</v>
@@ -8721,18 +8774,20 @@
     </row>
     <row r="188">
       <c r="A188" s="5" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B188" s="6">
         <v>4.0</v>
       </c>
       <c r="C188" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D188" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E188" s="7"/>
+      <c r="E188" s="8" t="s">
+        <v>45</v>
+      </c>
       <c r="F188" s="7"/>
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
@@ -8757,13 +8812,13 @@
     </row>
     <row r="189">
       <c r="A189" s="5" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B189" s="6">
         <v>4.5</v>
       </c>
       <c r="C189" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D189" s="5" t="s">
         <v>7</v>
@@ -8793,13 +8848,13 @@
     </row>
     <row r="190">
       <c r="A190" s="5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B190" s="6">
         <v>4.0</v>
       </c>
       <c r="C190" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D190" s="5" t="s">
         <v>7</v>
@@ -8829,13 +8884,13 @@
     </row>
     <row r="191">
       <c r="A191" s="5" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="B191" s="6">
         <v>4.0</v>
       </c>
       <c r="C191" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D191" s="5" t="s">
         <v>7</v>
@@ -8865,13 +8920,13 @@
     </row>
     <row r="192">
       <c r="A192" s="5" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B192" s="6">
         <v>3.0</v>
       </c>
       <c r="C192" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D192" s="5" t="s">
         <v>7</v>
@@ -8901,13 +8956,13 @@
     </row>
     <row r="193">
       <c r="A193" s="5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B193" s="6">
         <v>4.3</v>
       </c>
       <c r="C193" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D193" s="5" t="s">
         <v>7</v>
@@ -8937,13 +8992,13 @@
     </row>
     <row r="194">
       <c r="A194" s="5" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="B194" s="6">
         <v>4.5</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D194" s="5" t="s">
         <v>7</v>
@@ -8973,13 +9028,13 @@
     </row>
     <row r="195">
       <c r="A195" s="5" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B195" s="6">
         <v>4.5</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D195" s="5" t="s">
         <v>7</v>
@@ -9009,13 +9064,13 @@
     </row>
     <row r="196">
       <c r="A196" s="5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B196" s="6">
         <v>4.5</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D196" s="5" t="s">
         <v>7</v>
@@ -9045,13 +9100,13 @@
     </row>
     <row r="197">
       <c r="A197" s="5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B197" s="6">
         <v>5.0</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D197" s="5" t="s">
         <v>7</v>
@@ -9081,13 +9136,13 @@
     </row>
     <row r="198">
       <c r="A198" s="5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B198" s="6">
         <v>4.5</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D198" s="5" t="s">
         <v>7</v>
@@ -9117,13 +9172,13 @@
     </row>
     <row r="199">
       <c r="A199" s="5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="B199" s="6">
         <v>4.3</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D199" s="5" t="s">
         <v>7</v>
@@ -9153,13 +9208,13 @@
     </row>
     <row r="200">
       <c r="A200" s="5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B200" s="6">
         <v>3.5</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D200" s="5" t="s">
         <v>7</v>
@@ -9189,19 +9244,19 @@
     </row>
     <row r="201">
       <c r="A201" s="5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B201" s="6">
         <v>5.5</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D201" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E201" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F201" s="7"/>
       <c r="G201" s="7"/>
@@ -9227,19 +9282,19 @@
     </row>
     <row r="202">
       <c r="A202" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B202" s="6">
         <v>5.5</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D202" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E202" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F202" s="7"/>
       <c r="G202" s="7"/>
@@ -9265,19 +9320,19 @@
     </row>
     <row r="203">
       <c r="A203" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B203" s="6">
         <v>5.5</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D203" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E203" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F203" s="7"/>
       <c r="G203" s="7"/>
@@ -9303,19 +9358,19 @@
     </row>
     <row r="204">
       <c r="A204" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B204" s="6">
         <v>5.5</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D204" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E204" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F204" s="7"/>
       <c r="G204" s="7"/>
@@ -9341,19 +9396,19 @@
     </row>
     <row r="205">
       <c r="A205" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B205" s="6">
         <v>5.5</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D205" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E205" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F205" s="7"/>
       <c r="G205" s="7"/>
@@ -9379,19 +9434,19 @@
     </row>
     <row r="206">
       <c r="A206" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B206" s="6">
         <v>5.0</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D206" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E206" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F206" s="7"/>
       <c r="G206" s="7"/>
@@ -9417,19 +9472,19 @@
     </row>
     <row r="207">
       <c r="A207" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B207" s="6">
         <v>5.5</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D207" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E207" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F207" s="7"/>
       <c r="G207" s="7"/>
@@ -9455,20 +9510,18 @@
     </row>
     <row r="208">
       <c r="A208" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B208" s="6">
         <v>6.5</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E208" s="8" t="s">
-        <v>228</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="E208" s="8"/>
       <c r="F208" s="7"/>
       <c r="G208" s="7"/>
       <c r="H208" s="7"/>
@@ -9493,20 +9546,18 @@
     </row>
     <row r="209">
       <c r="A209" s="5" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B209" s="6">
         <v>5.5</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D209" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E209" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="E209" s="8"/>
       <c r="F209" s="7"/>
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
@@ -9531,19 +9582,19 @@
     </row>
     <row r="210">
       <c r="A210" s="5" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B210" s="6">
         <v>5.5</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D210" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E210" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F210" s="7"/>
       <c r="G210" s="7"/>
@@ -9569,19 +9620,19 @@
     </row>
     <row r="211">
       <c r="A211" s="5" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B211" s="6">
         <v>5.5</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D211" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E211" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F211" s="7"/>
       <c r="G211" s="7"/>
@@ -9607,19 +9658,19 @@
     </row>
     <row r="212">
       <c r="A212" s="5" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B212" s="6">
         <v>5.5</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D212" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E212" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F212" s="7"/>
       <c r="G212" s="7"/>
@@ -9645,19 +9696,19 @@
     </row>
     <row r="213">
       <c r="A213" s="5" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B213" s="6">
         <v>6.0</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D213" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E213" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F213" s="7"/>
       <c r="G213" s="7"/>
@@ -9683,19 +9734,19 @@
     </row>
     <row r="214">
       <c r="A214" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B214" s="6">
         <v>6.5</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D214" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E214" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F214" s="7"/>
       <c r="G214" s="7"/>
@@ -9721,19 +9772,19 @@
     </row>
     <row r="215">
       <c r="A215" s="5" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B215" s="6">
         <v>6.5</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D215" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E215" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F215" s="7"/>
       <c r="G215" s="7"/>
@@ -9759,19 +9810,19 @@
     </row>
     <row r="216">
       <c r="A216" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B216" s="6">
         <v>5.5</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D216" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E216" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F216" s="7"/>
       <c r="G216" s="7"/>
@@ -9797,20 +9848,18 @@
     </row>
     <row r="217">
       <c r="A217" s="5" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B217" s="6">
         <v>1.8</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D217" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E217" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="E217" s="8"/>
       <c r="F217" s="7"/>
       <c r="G217" s="7"/>
       <c r="H217" s="7"/>
@@ -9835,20 +9884,18 @@
     </row>
     <row r="218">
       <c r="A218" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B218" s="6">
         <v>5.0</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D218" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E218" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="E218" s="8"/>
       <c r="F218" s="7"/>
       <c r="G218" s="7"/>
       <c r="H218" s="7"/>
@@ -9873,19 +9920,19 @@
     </row>
     <row r="219">
       <c r="A219" s="5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B219" s="6">
         <v>3.5</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D219" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E219" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F219" s="7"/>
       <c r="G219" s="7"/>
@@ -9911,19 +9958,19 @@
     </row>
     <row r="220">
       <c r="A220" s="5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B220" s="6">
         <v>2.5</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D220" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E220" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F220" s="7"/>
       <c r="G220" s="7"/>
@@ -9949,20 +9996,18 @@
     </row>
     <row r="221">
       <c r="A221" s="5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B221" s="6">
         <v>1.8</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D221" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E221" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="E221" s="8"/>
       <c r="F221" s="7"/>
       <c r="G221" s="7"/>
       <c r="H221" s="7"/>
@@ -9987,20 +10032,18 @@
     </row>
     <row r="222">
       <c r="A222" s="5" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B222" s="6">
         <v>5.0</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D222" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E222" s="5" t="s">
-        <v>228</v>
-      </c>
+      <c r="E222" s="8"/>
       <c r="F222" s="7"/>
       <c r="G222" s="7"/>
       <c r="H222" s="7"/>
@@ -10025,20 +10068,18 @@
     </row>
     <row r="223">
       <c r="A223" s="5" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B223" s="6">
         <v>1.8</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D223" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E223" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="E223" s="8"/>
       <c r="F223" s="7"/>
       <c r="G223" s="7"/>
       <c r="H223" s="7"/>
@@ -10063,20 +10104,18 @@
     </row>
     <row r="224">
       <c r="A224" s="5" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B224" s="6">
         <v>5.0</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D224" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E224" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="E224" s="8"/>
       <c r="F224" s="7"/>
       <c r="G224" s="7"/>
       <c r="H224" s="7"/>
@@ -10101,19 +10140,19 @@
     </row>
     <row r="225">
       <c r="A225" s="5" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B225" s="6">
         <v>2.0</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D225" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E225" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F225" s="7"/>
       <c r="G225" s="7"/>
@@ -10139,19 +10178,19 @@
     </row>
     <row r="226">
       <c r="A226" s="5" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B226" s="6">
         <v>1.5</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D226" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E226" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F226" s="7"/>
       <c r="G226" s="7"/>
@@ -10177,13 +10216,13 @@
     </row>
     <row r="227">
       <c r="A227" s="5" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B227" s="6">
         <v>4.5</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D227" s="5" t="s">
         <v>7</v>
@@ -10213,13 +10252,13 @@
     </row>
     <row r="228">
       <c r="A228" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B228" s="6">
         <v>4.0</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D228" s="5" t="s">
         <v>7</v>
@@ -10249,13 +10288,13 @@
     </row>
     <row r="229">
       <c r="A229" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B229" s="6">
         <v>3.5</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D229" s="5" t="s">
         <v>7</v>
@@ -10285,13 +10324,13 @@
     </row>
     <row r="230">
       <c r="A230" s="5" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B230" s="6">
         <v>3.0</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D230" s="5" t="s">
         <v>7</v>
@@ -10321,13 +10360,13 @@
     </row>
     <row r="231">
       <c r="A231" s="5" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B231" s="6">
         <v>4.0</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D231" s="5" t="s">
         <v>7</v>
@@ -10357,13 +10396,13 @@
     </row>
     <row r="232">
       <c r="A232" s="5" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B232" s="6">
         <v>4.5</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D232" s="5" t="s">
         <v>7</v>
@@ -10393,13 +10432,13 @@
     </row>
     <row r="233">
       <c r="A233" s="5" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B233" s="6">
         <v>4.5</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D233" s="5" t="s">
         <v>7</v>
@@ -10429,13 +10468,13 @@
     </row>
     <row r="234">
       <c r="A234" s="5" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B234" s="6">
         <v>3.5</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D234" s="5" t="s">
         <v>7</v>
@@ -10465,13 +10504,13 @@
     </row>
     <row r="235">
       <c r="A235" s="5" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B235" s="6">
         <v>3.5</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D235" s="5" t="s">
         <v>7</v>
@@ -10501,13 +10540,13 @@
     </row>
     <row r="236">
       <c r="A236" s="5" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B236" s="6">
         <v>1.3</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D236" s="5" t="s">
         <v>7</v>
@@ -10537,13 +10576,13 @@
     </row>
     <row r="237">
       <c r="A237" s="5" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B237" s="6">
         <v>1.2</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D237" s="5" t="s">
         <v>7</v>
@@ -10573,13 +10612,13 @@
     </row>
     <row r="238">
       <c r="A238" s="5" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B238" s="6">
         <v>1.5</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D238" s="5" t="s">
         <v>7</v>
@@ -10609,18 +10648,20 @@
     </row>
     <row r="239">
       <c r="A239" s="5" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B239" s="6">
         <v>4.0</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D239" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E239" s="7"/>
+      <c r="E239" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F239" s="7"/>
       <c r="G239" s="7"/>
       <c r="H239" s="7"/>
@@ -10645,13 +10686,13 @@
     </row>
     <row r="240">
       <c r="A240" s="5" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B240" s="6">
         <v>5.5</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D240" s="5" t="s">
         <v>7</v>
@@ -10681,13 +10722,13 @@
     </row>
     <row r="241">
       <c r="A241" s="5" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B241" s="6">
         <v>1.2</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D241" s="5" t="s">
         <v>7</v>
@@ -10717,13 +10758,13 @@
     </row>
     <row r="242">
       <c r="A242" s="5" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B242" s="6">
         <v>1.5</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D242" s="5" t="s">
         <v>7</v>
@@ -10753,13 +10794,13 @@
     </row>
     <row r="243">
       <c r="A243" s="5" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B243" s="6">
         <v>3.0</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D243" s="5" t="s">
         <v>7</v>
@@ -10789,13 +10830,13 @@
     </row>
     <row r="244">
       <c r="A244" s="5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B244" s="6">
         <v>5.0</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D244" s="5" t="s">
         <v>7</v>
@@ -10825,13 +10866,13 @@
     </row>
     <row r="245">
       <c r="A245" s="5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B245" s="6">
         <v>5.0</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D245" s="5" t="s">
         <v>7</v>
@@ -10861,13 +10902,13 @@
     </row>
     <row r="246">
       <c r="A246" s="5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B246" s="6">
         <v>5.0</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D246" s="5" t="s">
         <v>7</v>
@@ -10897,13 +10938,13 @@
     </row>
     <row r="247">
       <c r="A247" s="5" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B247" s="6">
         <v>5.0</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D247" s="5" t="s">
         <v>7</v>
@@ -10933,13 +10974,13 @@
     </row>
     <row r="248">
       <c r="A248" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B248" s="6">
         <v>5.0</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D248" s="5" t="s">
         <v>7</v>
@@ -10969,13 +11010,13 @@
     </row>
     <row r="249">
       <c r="A249" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B249" s="6">
         <v>5.0</v>
       </c>
       <c r="C249" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D249" s="5" t="s">
         <v>7</v>
@@ -11005,13 +11046,13 @@
     </row>
     <row r="250">
       <c r="A250" s="5" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B250" s="6">
         <v>5.0</v>
       </c>
       <c r="C250" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D250" s="5" t="s">
         <v>7</v>
@@ -11041,13 +11082,13 @@
     </row>
     <row r="251">
       <c r="A251" s="5" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B251" s="6">
         <v>5.0</v>
       </c>
       <c r="C251" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D251" s="5" t="s">
         <v>7</v>
@@ -11077,13 +11118,13 @@
     </row>
     <row r="252">
       <c r="A252" s="5" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B252" s="6">
         <v>3.8</v>
       </c>
       <c r="C252" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D252" s="5" t="s">
         <v>7</v>
@@ -11113,13 +11154,13 @@
     </row>
     <row r="253">
       <c r="A253" s="5" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B253" s="6">
         <v>3.8</v>
       </c>
       <c r="C253" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D253" s="5" t="s">
         <v>7</v>
@@ -11149,13 +11190,13 @@
     </row>
     <row r="254">
       <c r="A254" s="5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B254" s="6">
         <v>4.0</v>
       </c>
       <c r="C254" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D254" s="5" t="s">
         <v>7</v>
@@ -11185,13 +11226,13 @@
     </row>
     <row r="255">
       <c r="A255" s="5" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B255" s="6">
         <v>4.0</v>
       </c>
       <c r="C255" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D255" s="5" t="s">
         <v>7</v>
@@ -11221,13 +11262,13 @@
     </row>
     <row r="256">
       <c r="A256" s="5" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B256" s="6">
         <v>3.0</v>
       </c>
       <c r="C256" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D256" s="5" t="s">
         <v>7</v>
@@ -11257,13 +11298,13 @@
     </row>
     <row r="257">
       <c r="A257" s="5" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B257" s="6">
         <v>4.0</v>
       </c>
       <c r="C257" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D257" s="5" t="s">
         <v>7</v>
@@ -11293,13 +11334,13 @@
     </row>
     <row r="258">
       <c r="A258" s="5" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B258" s="6">
         <v>5.0</v>
       </c>
       <c r="C258" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D258" s="5" t="s">
         <v>7</v>
@@ -11329,13 +11370,13 @@
     </row>
     <row r="259">
       <c r="A259" s="5" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B259" s="6">
         <v>3.0</v>
       </c>
       <c r="C259" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D259" s="5" t="s">
         <v>7</v>
@@ -11365,13 +11406,13 @@
     </row>
     <row r="260">
       <c r="A260" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B260" s="6">
         <v>4.0</v>
       </c>
       <c r="C260" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D260" s="5" t="s">
         <v>7</v>
@@ -11401,13 +11442,13 @@
     </row>
     <row r="261">
       <c r="A261" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B261" s="6">
         <v>5.0</v>
       </c>
       <c r="C261" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D261" s="5" t="s">
         <v>7</v>
@@ -11437,13 +11478,13 @@
     </row>
     <row r="262">
       <c r="A262" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B262" s="6">
         <v>3.8</v>
       </c>
       <c r="C262" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D262" s="5" t="s">
         <v>7</v>
@@ -11473,13 +11514,13 @@
     </row>
     <row r="263">
       <c r="A263" s="5" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B263" s="6">
         <v>3.8</v>
       </c>
       <c r="C263" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D263" s="5" t="s">
         <v>7</v>
@@ -11509,13 +11550,13 @@
     </row>
     <row r="264">
       <c r="A264" s="5" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B264" s="6">
         <v>4.0</v>
       </c>
       <c r="C264" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D264" s="5" t="s">
         <v>7</v>
@@ -11545,13 +11586,13 @@
     </row>
     <row r="265">
       <c r="A265" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B265" s="6">
         <v>2.5</v>
       </c>
       <c r="C265" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D265" s="5" t="s">
         <v>7</v>
@@ -11581,13 +11622,13 @@
     </row>
     <row r="266">
       <c r="A266" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B266" s="6">
         <v>2.5</v>
       </c>
       <c r="C266" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D266" s="5" t="s">
         <v>7</v>
@@ -11617,13 +11658,13 @@
     </row>
     <row r="267">
       <c r="A267" s="5" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B267" s="6">
         <v>2.5</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D267" s="5" t="s">
         <v>7</v>
@@ -11653,13 +11694,13 @@
     </row>
     <row r="268">
       <c r="A268" s="5" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B268" s="6">
         <v>2.8</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D268" s="5" t="s">
         <v>7</v>
@@ -11689,13 +11730,13 @@
     </row>
     <row r="269">
       <c r="A269" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B269" s="6">
         <v>6.2</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D269" s="5" t="s">
         <v>7</v>
@@ -11725,13 +11766,13 @@
     </row>
     <row r="270">
       <c r="A270" s="5" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B270" s="6">
         <v>6.2</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D270" s="5" t="s">
         <v>7</v>
@@ -11761,13 +11802,13 @@
     </row>
     <row r="271">
       <c r="A271" s="5" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B271" s="6">
         <v>8.9</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D271" s="5" t="s">
         <v>7</v>
@@ -11797,13 +11838,13 @@
     </row>
     <row r="272">
       <c r="A272" s="5" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B272" s="6">
         <v>6.5</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D272" s="5" t="s">
         <v>7</v>
@@ -11833,16 +11874,16 @@
     </row>
     <row r="273">
       <c r="A273" s="5" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B273" s="6">
         <v>6.5</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E273" s="7"/>
       <c r="F273" s="7"/>
@@ -11869,13 +11910,13 @@
     </row>
     <row r="274">
       <c r="A274" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B274" s="6">
         <v>6.9</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D274" s="5" t="s">
         <v>7</v>
@@ -11905,13 +11946,13 @@
     </row>
     <row r="275">
       <c r="A275" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B275" s="6">
         <v>4.9</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D275" s="5" t="s">
         <v>7</v>
@@ -11941,13 +11982,13 @@
     </row>
     <row r="276">
       <c r="A276" s="5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B276" s="6">
         <v>5.9</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D276" s="5" t="s">
         <v>7</v>
@@ -11977,13 +12018,13 @@
     </row>
     <row r="277">
       <c r="A277" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B277" s="6">
         <v>5.9</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D277" s="5" t="s">
         <v>7</v>
@@ -12013,13 +12054,13 @@
     </row>
     <row r="278">
       <c r="A278" s="5" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B278" s="6">
         <v>5.9</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D278" s="5" t="s">
         <v>7</v>
@@ -12049,13 +12090,13 @@
     </row>
     <row r="279">
       <c r="A279" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B279" s="6">
         <v>7.5</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D279" s="5" t="s">
         <v>7</v>
@@ -12085,16 +12126,16 @@
     </row>
     <row r="280">
       <c r="A280" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B280" s="6">
         <v>2.0</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D280" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E280" s="7"/>
       <c r="F280" s="7"/>
@@ -12121,16 +12162,16 @@
     </row>
     <row r="281">
       <c r="A281" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B281" s="6">
         <v>3.0</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D281" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E281" s="7"/>
       <c r="F281" s="7"/>
@@ -12157,13 +12198,13 @@
     </row>
     <row r="282">
       <c r="A282" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B282" s="6">
         <v>2.0</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D282" s="5" t="s">
         <v>7</v>
@@ -12193,13 +12234,13 @@
     </row>
     <row r="283">
       <c r="A283" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B283" s="6">
         <v>2.0</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D283" s="5" t="s">
         <v>7</v>
@@ -12229,13 +12270,13 @@
     </row>
     <row r="284">
       <c r="A284" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B284" s="6">
         <v>1.5</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D284" s="5" t="s">
         <v>7</v>
@@ -12265,13 +12306,13 @@
     </row>
     <row r="285">
       <c r="A285" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B285" s="6">
         <v>1.5</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D285" s="5" t="s">
         <v>7</v>
@@ -12301,13 +12342,13 @@
     </row>
     <row r="286">
       <c r="A286" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B286" s="6">
         <v>2.0</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D286" s="5" t="s">
         <v>7</v>
@@ -12337,13 +12378,13 @@
     </row>
     <row r="287">
       <c r="A287" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B287" s="6">
         <v>1.2</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D287" s="5" t="s">
         <v>7</v>
@@ -12373,13 +12414,13 @@
     </row>
     <row r="288">
       <c r="A288" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B288" s="6">
         <v>1.2</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D288" s="5" t="s">
         <v>7</v>
@@ -12409,18 +12450,20 @@
     </row>
     <row r="289">
       <c r="A289" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B289" s="6">
         <v>2.0</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D289" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E289" s="7"/>
+      <c r="E289" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F289" s="7"/>
       <c r="G289" s="7"/>
       <c r="H289" s="7"/>
@@ -12445,13 +12488,13 @@
     </row>
     <row r="290">
       <c r="A290" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B290" s="6">
         <v>1.5</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D290" s="5" t="s">
         <v>7</v>
@@ -12481,18 +12524,20 @@
     </row>
     <row r="291">
       <c r="A291" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B291" s="6">
         <v>3.5</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D291" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E291" s="7"/>
+      <c r="E291" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F291" s="7"/>
       <c r="G291" s="7"/>
       <c r="H291" s="7"/>
@@ -12517,19 +12562,19 @@
     </row>
     <row r="292">
       <c r="A292" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B292" s="6">
         <v>5.0</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D292" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E292" s="8" t="s">
-        <v>320</v>
+        <v>45</v>
       </c>
       <c r="F292" s="7"/>
       <c r="G292" s="7"/>
@@ -12561,7 +12606,7 @@
         <v>6.0</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D293" s="5" t="s">
         <v>7</v>
@@ -12597,13 +12642,13 @@
         <v>5.0</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D294" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E294" s="5" t="s">
-        <v>320</v>
+      <c r="E294" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F294" s="7"/>
       <c r="G294" s="7"/>
@@ -12635,13 +12680,13 @@
         <v>5.5</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D295" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E295" s="5" t="s">
-        <v>320</v>
+      <c r="E295" s="8" t="s">
+        <v>45</v>
       </c>
       <c r="F295" s="7"/>
       <c r="G295" s="7"/>
@@ -12673,7 +12718,7 @@
         <v>6.0</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D296" s="5" t="s">
         <v>7</v>
@@ -12709,7 +12754,7 @@
         <v>6.5</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D297" s="5" t="s">
         <v>7</v>
@@ -12745,7 +12790,7 @@
         <v>7.0</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D298" s="5" t="s">
         <v>7</v>
@@ -12781,7 +12826,7 @@
         <v>7.5</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D299" s="5" t="s">
         <v>7</v>
@@ -12817,7 +12862,7 @@
         <v>7.0</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D300" s="5" t="s">
         <v>7</v>
@@ -12853,7 +12898,7 @@
         <v>1.5</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D301" s="5" t="s">
         <v>7</v>
@@ -12889,7 +12934,7 @@
         <v>2.5</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D302" s="5" t="s">
         <v>7</v>
@@ -12925,7 +12970,7 @@
         <v>2.5</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D303" s="5" t="s">
         <v>7</v>
@@ -12961,7 +13006,7 @@
         <v>3.0</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="D304" s="5" t="s">
         <v>7</v>
@@ -13074,7 +13119,9 @@
       <c r="D307" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E307" s="7"/>
+      <c r="E307" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F307" s="7"/>
       <c r="G307" s="7"/>
       <c r="H307" s="7"/>
@@ -13470,7 +13517,9 @@
       <c r="D318" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E318" s="7"/>
+      <c r="E318" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="F318" s="7"/>
       <c r="G318" s="7"/>
       <c r="H318" s="7"/>
@@ -13794,7 +13843,9 @@
       <c r="D327" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E327" s="7"/>
+      <c r="E327" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F327" s="7"/>
       <c r="G327" s="7"/>
       <c r="H327" s="7"/>
@@ -13830,7 +13881,9 @@
       <c r="D328" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E328" s="7"/>
+      <c r="E328" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F328" s="7"/>
       <c r="G328" s="7"/>
       <c r="H328" s="7"/>
@@ -13866,7 +13919,9 @@
       <c r="D329" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E329" s="7"/>
+      <c r="E329" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F329" s="7"/>
       <c r="G329" s="7"/>
       <c r="H329" s="7"/>
@@ -14572,8 +14627,8 @@
       <c r="D348" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E348" s="5" t="s">
-        <v>219</v>
+      <c r="E348" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="F348" s="7"/>
       <c r="G348" s="7"/>
@@ -14610,8 +14665,8 @@
       <c r="D349" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E349" s="5" t="s">
-        <v>219</v>
+      <c r="E349" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="F349" s="7"/>
       <c r="G349" s="7"/>
@@ -14648,8 +14703,8 @@
       <c r="D350" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E350" s="5" t="s">
-        <v>219</v>
+      <c r="E350" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="F350" s="7"/>
       <c r="G350" s="7"/>
@@ -14686,8 +14741,8 @@
       <c r="D351" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E351" s="5" t="s">
-        <v>219</v>
+      <c r="E351" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="F351" s="7"/>
       <c r="G351" s="7"/>
@@ -14724,8 +14779,8 @@
       <c r="D352" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E352" s="5" t="s">
-        <v>219</v>
+      <c r="E352" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="F352" s="7"/>
       <c r="G352" s="7"/>
@@ -14762,8 +14817,8 @@
       <c r="D353" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E353" s="5" t="s">
-        <v>219</v>
+      <c r="E353" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="F353" s="7"/>
       <c r="G353" s="7"/>
@@ -14800,8 +14855,8 @@
       <c r="D354" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E354" s="5" t="s">
-        <v>219</v>
+      <c r="E354" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="F354" s="7"/>
       <c r="G354" s="7"/>
@@ -14838,8 +14893,8 @@
       <c r="D355" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E355" s="5" t="s">
-        <v>219</v>
+      <c r="E355" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="F355" s="7"/>
       <c r="G355" s="7"/>
@@ -14876,8 +14931,8 @@
       <c r="D356" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E356" s="5" t="s">
-        <v>219</v>
+      <c r="E356" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="F356" s="7"/>
       <c r="G356" s="7"/>
@@ -14914,8 +14969,8 @@
       <c r="D357" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E357" s="5" t="s">
-        <v>219</v>
+      <c r="E357" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="F357" s="7"/>
       <c r="G357" s="7"/>
@@ -14952,8 +15007,8 @@
       <c r="D358" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="E358" s="5" t="s">
-        <v>219</v>
+      <c r="E358" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="F358" s="7"/>
       <c r="G358" s="7"/>
@@ -14990,8 +15045,8 @@
       <c r="D359" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E359" s="5" t="s">
-        <v>219</v>
+      <c r="E359" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="F359" s="7"/>
       <c r="G359" s="7"/>
@@ -15028,8 +15083,8 @@
       <c r="D360" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E360" s="5" t="s">
-        <v>219</v>
+      <c r="E360" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="F360" s="7"/>
       <c r="G360" s="7"/>
@@ -15066,8 +15121,8 @@
       <c r="D361" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E361" s="5" t="s">
-        <v>219</v>
+      <c r="E361" s="8" t="s">
+        <v>368</v>
       </c>
       <c r="F361" s="7"/>
       <c r="G361" s="7"/>
@@ -15104,9 +15159,7 @@
       <c r="D362" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E362" s="5" t="s">
-        <v>219</v>
-      </c>
+      <c r="E362" s="8"/>
       <c r="F362" s="7"/>
       <c r="G362" s="7"/>
       <c r="H362" s="7"/>
@@ -15142,9 +15195,7 @@
       <c r="D363" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E363" s="5" t="s">
-        <v>219</v>
-      </c>
+      <c r="E363" s="8"/>
       <c r="F363" s="7"/>
       <c r="G363" s="7"/>
       <c r="H363" s="7"/>
@@ -15180,9 +15231,7 @@
       <c r="D364" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E364" s="8" t="s">
-        <v>228</v>
-      </c>
+      <c r="E364" s="8"/>
       <c r="F364" s="7"/>
       <c r="G364" s="7"/>
       <c r="H364" s="7"/>
@@ -15218,7 +15267,9 @@
       <c r="D365" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E365" s="7"/>
+      <c r="E365" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F365" s="7"/>
       <c r="G365" s="7"/>
       <c r="H365" s="7"/>
@@ -15243,7 +15294,7 @@
     </row>
     <row r="366">
       <c r="A366" s="5" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B366" s="6">
         <v>8.0</v>
@@ -15254,7 +15305,9 @@
       <c r="D366" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E366" s="7"/>
+      <c r="E366" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="F366" s="7"/>
       <c r="G366" s="7"/>
       <c r="H366" s="7"/>
@@ -15279,7 +15332,7 @@
     </row>
     <row r="367">
       <c r="A367" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B367" s="6">
         <v>5.0</v>
@@ -15290,7 +15343,9 @@
       <c r="D367" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E367" s="7"/>
+      <c r="E367" s="8" t="s">
+        <v>404</v>
+      </c>
       <c r="F367" s="7"/>
       <c r="G367" s="7"/>
       <c r="H367" s="7"/>
@@ -15315,7 +15370,7 @@
     </row>
     <row r="368">
       <c r="A368" s="5" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B368" s="6">
         <v>6.8</v>
@@ -15326,7 +15381,9 @@
       <c r="D368" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E368" s="7"/>
+      <c r="E368" s="8" t="s">
+        <v>404</v>
+      </c>
       <c r="F368" s="7"/>
       <c r="G368" s="7"/>
       <c r="H368" s="7"/>
@@ -15351,7 +15408,7 @@
     </row>
     <row r="369">
       <c r="A369" s="5" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B369" s="6">
         <v>5.5</v>
@@ -15362,7 +15419,9 @@
       <c r="D369" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E369" s="7"/>
+      <c r="E369" s="8" t="s">
+        <v>404</v>
+      </c>
       <c r="F369" s="7"/>
       <c r="G369" s="7"/>
       <c r="H369" s="7"/>
@@ -15387,7 +15446,7 @@
     </row>
     <row r="370">
       <c r="A370" s="5" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B370" s="6">
         <v>6.9</v>
@@ -15398,7 +15457,9 @@
       <c r="D370" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E370" s="7"/>
+      <c r="E370" s="8" t="s">
+        <v>404</v>
+      </c>
       <c r="F370" s="7"/>
       <c r="G370" s="7"/>
       <c r="H370" s="7"/>
@@ -15423,7 +15484,7 @@
     </row>
     <row r="371">
       <c r="A371" s="5" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B371" s="6">
         <v>10.5</v>
@@ -15435,7 +15496,7 @@
         <v>7</v>
       </c>
       <c r="E371" s="8" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="F371" s="7"/>
       <c r="G371" s="7"/>
@@ -15461,7 +15522,7 @@
     </row>
     <row r="372">
       <c r="A372" s="5" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B372" s="6">
         <v>10.5</v>
@@ -15472,7 +15533,9 @@
       <c r="D372" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E372" s="8"/>
+      <c r="E372" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F372" s="7"/>
       <c r="G372" s="7"/>
       <c r="H372" s="7"/>
@@ -15497,7 +15560,7 @@
     </row>
     <row r="373">
       <c r="A373" s="5" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B373" s="6">
         <v>10.5</v>
@@ -15509,7 +15572,7 @@
         <v>7</v>
       </c>
       <c r="E373" s="8" t="s">
-        <v>320</v>
+        <v>368</v>
       </c>
       <c r="F373" s="7"/>
       <c r="G373" s="7"/>
@@ -15535,7 +15598,7 @@
     </row>
     <row r="374">
       <c r="A374" s="5" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B374" s="6">
         <v>11.45</v>
@@ -15546,7 +15609,9 @@
       <c r="D374" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E374" s="7"/>
+      <c r="E374" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F374" s="7"/>
       <c r="G374" s="7"/>
       <c r="H374" s="7"/>
@@ -15571,7 +15636,7 @@
     </row>
     <row r="375">
       <c r="A375" s="5" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B375" s="6">
         <v>8.5</v>
@@ -15582,7 +15647,9 @@
       <c r="D375" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E375" s="7"/>
+      <c r="E375" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="F375" s="7"/>
       <c r="G375" s="7"/>
       <c r="H375" s="7"/>
@@ -15607,7 +15674,7 @@
     </row>
     <row r="376">
       <c r="A376" s="5" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="B376" s="6">
         <v>8.5</v>
@@ -15618,7 +15685,9 @@
       <c r="D376" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E376" s="7"/>
+      <c r="E376" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="F376" s="7"/>
       <c r="G376" s="7"/>
       <c r="H376" s="7"/>
@@ -15643,7 +15712,7 @@
     </row>
     <row r="377">
       <c r="A377" s="5" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="B377" s="6">
         <v>13.9</v>
@@ -15654,7 +15723,9 @@
       <c r="D377" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E377" s="7"/>
+      <c r="E377" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="F377" s="7"/>
       <c r="G377" s="7"/>
       <c r="H377" s="7"/>
@@ -15679,7 +15750,7 @@
     </row>
     <row r="378">
       <c r="A378" s="5" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="B378" s="6">
         <v>13.5</v>
@@ -15690,7 +15761,9 @@
       <c r="D378" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E378" s="7"/>
+      <c r="E378" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F378" s="7"/>
       <c r="G378" s="7"/>
       <c r="H378" s="7"/>
@@ -15715,7 +15788,7 @@
     </row>
     <row r="379">
       <c r="A379" s="5" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="B379" s="6">
         <v>14.9</v>
@@ -15726,7 +15799,9 @@
       <c r="D379" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E379" s="7"/>
+      <c r="E379" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F379" s="7"/>
       <c r="G379" s="7"/>
       <c r="H379" s="7"/>
@@ -15751,7 +15826,7 @@
     </row>
     <row r="380">
       <c r="A380" s="5" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="B380" s="6">
         <v>18.2</v>
@@ -15762,7 +15837,9 @@
       <c r="D380" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E380" s="7"/>
+      <c r="E380" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F380" s="7"/>
       <c r="G380" s="7"/>
       <c r="H380" s="7"/>
@@ -15787,7 +15864,7 @@
     </row>
     <row r="381">
       <c r="A381" s="5" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B381" s="6">
         <v>11.9</v>
@@ -15798,7 +15875,9 @@
       <c r="D381" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E381" s="7"/>
+      <c r="E381" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F381" s="7"/>
       <c r="G381" s="7"/>
       <c r="H381" s="7"/>
@@ -15823,7 +15902,7 @@
     </row>
     <row r="382">
       <c r="A382" s="5" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="B382" s="6">
         <v>11.9</v>
@@ -15834,7 +15913,9 @@
       <c r="D382" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E382" s="7"/>
+      <c r="E382" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F382" s="7"/>
       <c r="G382" s="7"/>
       <c r="H382" s="7"/>
@@ -15859,7 +15940,7 @@
     </row>
     <row r="383">
       <c r="A383" s="5" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="B383" s="6">
         <v>12.0</v>
@@ -15870,7 +15951,9 @@
       <c r="D383" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E383" s="7"/>
+      <c r="E383" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F383" s="7"/>
       <c r="G383" s="7"/>
       <c r="H383" s="7"/>
@@ -15895,7 +15978,7 @@
     </row>
     <row r="384">
       <c r="A384" s="5" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B384" s="6">
         <v>11.9</v>
@@ -15906,7 +15989,9 @@
       <c r="D384" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E384" s="7"/>
+      <c r="E384" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F384" s="7"/>
       <c r="G384" s="7"/>
       <c r="H384" s="7"/>
@@ -15931,7 +16016,7 @@
     </row>
     <row r="385">
       <c r="A385" s="5" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="B385" s="6">
         <v>12.8</v>
@@ -15942,7 +16027,9 @@
       <c r="D385" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E385" s="7"/>
+      <c r="E385" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F385" s="7"/>
       <c r="G385" s="7"/>
       <c r="H385" s="7"/>
@@ -15967,7 +16054,7 @@
     </row>
     <row r="386">
       <c r="A386" s="5" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B386" s="6">
         <v>11.8</v>
@@ -15978,7 +16065,9 @@
       <c r="D386" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E386" s="7"/>
+      <c r="E386" s="8" t="s">
+        <v>368</v>
+      </c>
       <c r="F386" s="7"/>
       <c r="G386" s="7"/>
       <c r="H386" s="7"/>
@@ -16003,7 +16092,7 @@
     </row>
     <row r="387">
       <c r="A387" s="5" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B387" s="6">
         <v>13.9</v>
@@ -16014,7 +16103,9 @@
       <c r="D387" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E387" s="7"/>
+      <c r="E387" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F387" s="7"/>
       <c r="G387" s="7"/>
       <c r="H387" s="7"/>
@@ -16039,7 +16130,7 @@
     </row>
     <row r="388">
       <c r="A388" s="5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B388" s="6">
         <v>12.9</v>
@@ -16050,7 +16141,9 @@
       <c r="D388" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E388" s="7"/>
+      <c r="E388" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F388" s="7"/>
       <c r="G388" s="7"/>
       <c r="H388" s="7"/>
@@ -16075,7 +16168,7 @@
     </row>
     <row r="389">
       <c r="A389" s="5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="B389" s="6">
         <v>12.9</v>
@@ -16086,7 +16179,9 @@
       <c r="D389" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E389" s="7"/>
+      <c r="E389" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F389" s="7"/>
       <c r="G389" s="7"/>
       <c r="H389" s="7"/>
@@ -16111,7 +16206,7 @@
     </row>
     <row r="390">
       <c r="A390" s="5" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="B390" s="6">
         <v>12.3</v>
@@ -16122,7 +16217,9 @@
       <c r="D390" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E390" s="7"/>
+      <c r="E390" s="8" t="s">
+        <v>400</v>
+      </c>
       <c r="F390" s="7"/>
       <c r="G390" s="7"/>
       <c r="H390" s="7"/>
@@ -16147,7 +16244,7 @@
     </row>
     <row r="391">
       <c r="A391" s="5" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B391" s="6">
         <v>12.9</v>
@@ -16158,7 +16255,9 @@
       <c r="D391" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E391" s="7"/>
+      <c r="E391" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="F391" s="7"/>
       <c r="G391" s="7"/>
       <c r="H391" s="7"/>
@@ -16183,7 +16282,7 @@
     </row>
     <row r="392">
       <c r="A392" s="5" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="B392" s="6">
         <v>12.9</v>
@@ -16194,7 +16293,9 @@
       <c r="D392" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E392" s="7"/>
+      <c r="E392" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="F392" s="7"/>
       <c r="G392" s="7"/>
       <c r="H392" s="7"/>
@@ -16219,7 +16320,7 @@
     </row>
     <row r="393">
       <c r="A393" s="5" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B393" s="6">
         <v>12.9</v>
@@ -16230,7 +16331,9 @@
       <c r="D393" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E393" s="7"/>
+      <c r="E393" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="F393" s="7"/>
       <c r="G393" s="7"/>
       <c r="H393" s="7"/>
@@ -16255,7 +16358,7 @@
     </row>
     <row r="394">
       <c r="A394" s="5" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="B394" s="6">
         <v>12.5</v>
@@ -16266,7 +16369,9 @@
       <c r="D394" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E394" s="7"/>
+      <c r="E394" s="8" t="s">
+        <v>368</v>
+      </c>
       <c r="F394" s="7"/>
       <c r="G394" s="7"/>
       <c r="H394" s="7"/>
@@ -16291,7 +16396,7 @@
     </row>
     <row r="395">
       <c r="A395" s="5" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="B395" s="6">
         <v>12.9</v>
@@ -16302,7 +16407,9 @@
       <c r="D395" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E395" s="7"/>
+      <c r="E395" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="F395" s="7"/>
       <c r="G395" s="7"/>
       <c r="H395" s="7"/>
@@ -16327,7 +16434,7 @@
     </row>
     <row r="396">
       <c r="A396" s="5" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="B396" s="6">
         <v>12.9</v>
@@ -16338,7 +16445,9 @@
       <c r="D396" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E396" s="7"/>
+      <c r="E396" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="F396" s="7"/>
       <c r="G396" s="7"/>
       <c r="H396" s="7"/>
@@ -16363,7 +16472,7 @@
     </row>
     <row r="397">
       <c r="A397" s="5" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="B397" s="6">
         <v>13.9</v>
@@ -16374,7 +16483,9 @@
       <c r="D397" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E397" s="7"/>
+      <c r="E397" s="8" t="s">
+        <v>402</v>
+      </c>
       <c r="F397" s="7"/>
       <c r="G397" s="7"/>
       <c r="H397" s="7"/>
@@ -16399,7 +16510,7 @@
     </row>
     <row r="398">
       <c r="A398" s="5" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="B398" s="6">
         <v>3.9</v>
@@ -16411,7 +16522,7 @@
         <v>7</v>
       </c>
       <c r="E398" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F398" s="7"/>
       <c r="G398" s="7"/>
@@ -16437,7 +16548,7 @@
     </row>
     <row r="399">
       <c r="A399" s="5" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B399" s="6">
         <v>4.5</v>
@@ -16449,7 +16560,7 @@
         <v>7</v>
       </c>
       <c r="E399" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F399" s="7"/>
       <c r="G399" s="7"/>
@@ -16475,7 +16586,7 @@
     </row>
     <row r="400">
       <c r="A400" s="5" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B400" s="6">
         <v>4.5</v>
@@ -16487,7 +16598,7 @@
         <v>7</v>
       </c>
       <c r="E400" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F400" s="7"/>
       <c r="G400" s="7"/>
@@ -16513,7 +16624,7 @@
     </row>
     <row r="401">
       <c r="A401" s="5" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B401" s="6">
         <v>4.5</v>
@@ -16525,7 +16636,7 @@
         <v>7</v>
       </c>
       <c r="E401" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F401" s="7"/>
       <c r="G401" s="7"/>
@@ -16551,7 +16662,7 @@
     </row>
     <row r="402">
       <c r="A402" s="5" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="B402" s="6">
         <v>5.0</v>
@@ -16563,7 +16674,7 @@
         <v>7</v>
       </c>
       <c r="E402" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F402" s="7"/>
       <c r="G402" s="7"/>
@@ -16589,7 +16700,7 @@
     </row>
     <row r="403">
       <c r="A403" s="5" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="B403" s="6">
         <v>3.0</v>
@@ -16601,7 +16712,7 @@
         <v>7</v>
       </c>
       <c r="E403" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F403" s="7"/>
       <c r="G403" s="7"/>
@@ -16627,7 +16738,7 @@
     </row>
     <row r="404">
       <c r="A404" s="5" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="B404" s="6">
         <v>5.0</v>
@@ -16639,7 +16750,7 @@
         <v>7</v>
       </c>
       <c r="E404" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F404" s="7"/>
       <c r="G404" s="7"/>
@@ -16665,7 +16776,7 @@
     </row>
     <row r="405">
       <c r="A405" s="5" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="B405" s="6">
         <v>5.0</v>
@@ -16677,7 +16788,7 @@
         <v>7</v>
       </c>
       <c r="E405" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F405" s="7"/>
       <c r="G405" s="7"/>
@@ -16703,7 +16814,7 @@
     </row>
     <row r="406">
       <c r="A406" s="5" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="B406" s="6">
         <v>4.5</v>
@@ -16715,7 +16826,7 @@
         <v>7</v>
       </c>
       <c r="E406" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F406" s="7"/>
       <c r="G406" s="7"/>
@@ -16741,7 +16852,7 @@
     </row>
     <row r="407">
       <c r="A407" s="5" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="B407" s="6">
         <v>5.5</v>
@@ -16753,7 +16864,7 @@
         <v>7</v>
       </c>
       <c r="E407" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F407" s="7"/>
       <c r="G407" s="7"/>
@@ -16779,7 +16890,7 @@
     </row>
     <row r="408">
       <c r="A408" s="5" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="B408" s="6">
         <v>5.5</v>
@@ -16791,7 +16902,7 @@
         <v>7</v>
       </c>
       <c r="E408" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F408" s="7"/>
       <c r="G408" s="7"/>
@@ -16817,7 +16928,7 @@
     </row>
     <row r="409">
       <c r="A409" s="5" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="B409" s="6">
         <v>5.9</v>
@@ -16829,7 +16940,7 @@
         <v>7</v>
       </c>
       <c r="E409" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F409" s="7"/>
       <c r="G409" s="7"/>
@@ -16855,7 +16966,7 @@
     </row>
     <row r="410">
       <c r="A410" s="5" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="B410" s="6">
         <v>5.5</v>
@@ -16867,7 +16978,7 @@
         <v>7</v>
       </c>
       <c r="E410" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F410" s="7"/>
       <c r="G410" s="7"/>
@@ -16893,7 +17004,7 @@
     </row>
     <row r="411">
       <c r="A411" s="5" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B411" s="6">
         <v>5.9</v>
@@ -16905,7 +17016,7 @@
         <v>7</v>
       </c>
       <c r="E411" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F411" s="7"/>
       <c r="G411" s="7"/>
@@ -16931,7 +17042,7 @@
     </row>
     <row r="412">
       <c r="A412" s="5" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B412" s="6">
         <v>5.9</v>
@@ -16943,7 +17054,7 @@
         <v>7</v>
       </c>
       <c r="E412" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F412" s="7"/>
       <c r="G412" s="7"/>
@@ -16969,7 +17080,7 @@
     </row>
     <row r="413">
       <c r="A413" s="5" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="B413" s="6">
         <v>4.3</v>
@@ -16981,7 +17092,7 @@
         <v>7</v>
       </c>
       <c r="E413" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F413" s="7"/>
       <c r="G413" s="7"/>
@@ -17007,7 +17118,7 @@
     </row>
     <row r="414">
       <c r="A414" s="5" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="B414" s="6">
         <v>4.9</v>
@@ -17019,7 +17130,7 @@
         <v>7</v>
       </c>
       <c r="E414" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F414" s="7"/>
       <c r="G414" s="7"/>
@@ -17045,7 +17156,7 @@
     </row>
     <row r="415">
       <c r="A415" s="5" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B415" s="6">
         <v>4.9</v>
@@ -17057,7 +17168,7 @@
         <v>7</v>
       </c>
       <c r="E415" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F415" s="7"/>
       <c r="G415" s="7"/>
@@ -17083,7 +17194,7 @@
     </row>
     <row r="416">
       <c r="A416" s="5" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B416" s="6">
         <v>4.9</v>
@@ -17095,7 +17206,7 @@
         <v>7</v>
       </c>
       <c r="E416" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F416" s="7"/>
       <c r="G416" s="7"/>
@@ -17121,7 +17232,7 @@
     </row>
     <row r="417">
       <c r="A417" s="5" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B417" s="6">
         <v>4.9</v>
@@ -17133,7 +17244,7 @@
         <v>7</v>
       </c>
       <c r="E417" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F417" s="7"/>
       <c r="G417" s="7"/>
@@ -17159,7 +17270,7 @@
     </row>
     <row r="418">
       <c r="A418" s="5" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="B418" s="6">
         <v>3.5</v>
@@ -17171,7 +17282,7 @@
         <v>7</v>
       </c>
       <c r="E418" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F418" s="7"/>
       <c r="G418" s="7"/>
@@ -17197,7 +17308,7 @@
     </row>
     <row r="419">
       <c r="A419" s="5" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="B419" s="6">
         <v>3.5</v>
@@ -17209,7 +17320,7 @@
         <v>7</v>
       </c>
       <c r="E419" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F419" s="7"/>
       <c r="G419" s="7"/>
@@ -17235,7 +17346,7 @@
     </row>
     <row r="420">
       <c r="A420" s="5" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="B420" s="6">
         <v>4.9</v>
@@ -17247,7 +17358,7 @@
         <v>7</v>
       </c>
       <c r="E420" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F420" s="7"/>
       <c r="G420" s="7"/>
@@ -17273,7 +17384,7 @@
     </row>
     <row r="421">
       <c r="A421" s="5" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="B421" s="6">
         <v>4.9</v>
@@ -17285,7 +17396,7 @@
         <v>7</v>
       </c>
       <c r="E421" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F421" s="7"/>
       <c r="G421" s="7"/>
@@ -17311,7 +17422,7 @@
     </row>
     <row r="422">
       <c r="A422" s="5" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="B422" s="6">
         <v>4.9</v>
@@ -17323,7 +17434,7 @@
         <v>7</v>
       </c>
       <c r="E422" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F422" s="7"/>
       <c r="G422" s="7"/>
@@ -17349,7 +17460,7 @@
     </row>
     <row r="423">
       <c r="A423" s="5" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="B423" s="6">
         <v>4.9</v>
@@ -17361,7 +17472,7 @@
         <v>7</v>
       </c>
       <c r="E423" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F423" s="7"/>
       <c r="G423" s="7"/>
@@ -17387,7 +17498,7 @@
     </row>
     <row r="424">
       <c r="A424" s="5" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="B424" s="6">
         <v>4.9</v>
@@ -17399,7 +17510,7 @@
         <v>7</v>
       </c>
       <c r="E424" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F424" s="7"/>
       <c r="G424" s="7"/>
@@ -17425,7 +17536,7 @@
     </row>
     <row r="425">
       <c r="A425" s="5" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B425" s="6">
         <v>5.9</v>
@@ -17437,7 +17548,7 @@
         <v>7</v>
       </c>
       <c r="E425" s="8" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F425" s="7"/>
       <c r="G425" s="7"/>
@@ -17463,13 +17574,13 @@
     </row>
     <row r="426">
       <c r="A426" s="5" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B426" s="6">
         <v>6.95</v>
       </c>
       <c r="C426" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D426" s="5" t="s">
         <v>7</v>
@@ -17499,13 +17610,13 @@
     </row>
     <row r="427">
       <c r="A427" s="5" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B427" s="6">
         <v>6.95</v>
       </c>
       <c r="C427" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D427" s="5" t="s">
         <v>7</v>
@@ -17535,18 +17646,20 @@
     </row>
     <row r="428">
       <c r="A428" s="5" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B428" s="6">
         <v>6.95</v>
       </c>
       <c r="C428" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D428" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E428" s="7"/>
+      <c r="E428" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F428" s="7"/>
       <c r="G428" s="7"/>
       <c r="H428" s="7"/>
@@ -17571,19 +17684,19 @@
     </row>
     <row r="429">
       <c r="A429" s="5" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B429" s="6">
         <v>6.95</v>
       </c>
       <c r="C429" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D429" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E429" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F429" s="7"/>
       <c r="G429" s="7"/>
@@ -17609,19 +17722,19 @@
     </row>
     <row r="430">
       <c r="A430" s="5" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B430" s="6">
         <v>6.95</v>
       </c>
       <c r="C430" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D430" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E430" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F430" s="7"/>
       <c r="G430" s="7"/>
@@ -17647,19 +17760,19 @@
     </row>
     <row r="431">
       <c r="A431" s="5" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B431" s="6">
         <v>6.95</v>
       </c>
       <c r="C431" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D431" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E431" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F431" s="7"/>
       <c r="G431" s="7"/>
@@ -17685,13 +17798,13 @@
     </row>
     <row r="432">
       <c r="A432" s="5" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B432" s="6">
         <v>9.95</v>
       </c>
       <c r="C432" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D432" s="5" t="s">
         <v>7</v>
@@ -17721,13 +17834,13 @@
     </row>
     <row r="433">
       <c r="A433" s="5" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B433" s="6">
         <v>9.95</v>
       </c>
       <c r="C433" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D433" s="5" t="s">
         <v>7</v>
@@ -17757,13 +17870,13 @@
     </row>
     <row r="434">
       <c r="A434" s="5" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B434" s="6">
         <v>9.95</v>
       </c>
       <c r="C434" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D434" s="5" t="s">
         <v>7</v>
@@ -17793,13 +17906,13 @@
     </row>
     <row r="435">
       <c r="A435" s="5" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B435" s="6">
         <v>9.95</v>
       </c>
       <c r="C435" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D435" s="5" t="s">
         <v>7</v>
@@ -17829,19 +17942,19 @@
     </row>
     <row r="436">
       <c r="A436" s="5" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B436" s="6">
         <v>9.95</v>
       </c>
       <c r="C436" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D436" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E436" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F436" s="7"/>
       <c r="G436" s="7"/>
@@ -17867,19 +17980,19 @@
     </row>
     <row r="437">
       <c r="A437" s="5" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B437" s="6">
         <v>9.95</v>
       </c>
       <c r="C437" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D437" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E437" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F437" s="7"/>
       <c r="G437" s="7"/>
@@ -17905,19 +18018,19 @@
     </row>
     <row r="438">
       <c r="A438" s="5" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="B438" s="6">
         <v>9.95</v>
       </c>
       <c r="C438" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D438" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E438" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F438" s="7"/>
       <c r="G438" s="7"/>
@@ -17943,13 +18056,13 @@
     </row>
     <row r="439">
       <c r="A439" s="5" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="B439" s="6">
         <v>7.95</v>
       </c>
       <c r="C439" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D439" s="5" t="s">
         <v>7</v>
@@ -17979,13 +18092,13 @@
     </row>
     <row r="440">
       <c r="A440" s="5" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B440" s="6">
         <v>7.95</v>
       </c>
       <c r="C440" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D440" s="5" t="s">
         <v>7</v>
@@ -18015,13 +18128,13 @@
     </row>
     <row r="441">
       <c r="A441" s="5" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B441" s="6">
         <v>8.95</v>
       </c>
       <c r="C441" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D441" s="5" t="s">
         <v>7</v>
@@ -18051,13 +18164,13 @@
     </row>
     <row r="442">
       <c r="A442" s="5" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="B442" s="6">
         <v>8.95</v>
       </c>
       <c r="C442" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D442" s="5" t="s">
         <v>7</v>
@@ -18087,13 +18200,13 @@
     </row>
     <row r="443">
       <c r="A443" s="5" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B443" s="6">
         <v>9.95</v>
       </c>
       <c r="C443" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D443" s="5" t="s">
         <v>7</v>
@@ -18123,18 +18236,20 @@
     </row>
     <row r="444">
       <c r="A444" s="9" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="B444" s="6">
         <v>8.95</v>
       </c>
       <c r="C444" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D444" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E444" s="7"/>
+      <c r="E444" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F444" s="7"/>
       <c r="G444" s="7"/>
       <c r="H444" s="7"/>
@@ -18159,18 +18274,20 @@
     </row>
     <row r="445">
       <c r="A445" s="5" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="B445" s="6">
         <v>9.95</v>
       </c>
       <c r="C445" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D445" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E445" s="7"/>
+      <c r="E445" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="F445" s="7"/>
       <c r="G445" s="7"/>
       <c r="H445" s="7"/>
@@ -18195,13 +18312,13 @@
     </row>
     <row r="446">
       <c r="A446" s="5" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="B446" s="6">
         <v>5.5</v>
       </c>
       <c r="C446" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D446" s="5" t="s">
         <v>7</v>
@@ -18231,13 +18348,13 @@
     </row>
     <row r="447">
       <c r="A447" s="5" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B447" s="6">
         <v>4.5</v>
       </c>
       <c r="C447" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D447" s="5" t="s">
         <v>7</v>
@@ -18267,13 +18384,13 @@
     </row>
     <row r="448">
       <c r="A448" s="5" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="B448" s="6">
         <v>5.0</v>
       </c>
       <c r="C448" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D448" s="5" t="s">
         <v>7</v>
@@ -18303,13 +18420,13 @@
     </row>
     <row r="449">
       <c r="A449" s="5" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B449" s="6">
         <v>8.95</v>
       </c>
       <c r="C449" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D449" s="5" t="s">
         <v>7</v>
@@ -18339,13 +18456,13 @@
     </row>
     <row r="450">
       <c r="A450" s="5" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="B450" s="6">
         <v>8.95</v>
       </c>
       <c r="C450" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D450" s="5" t="s">
         <v>7</v>
@@ -18375,13 +18492,13 @@
     </row>
     <row r="451">
       <c r="A451" s="5" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="B451" s="6">
         <v>8.95</v>
       </c>
       <c r="C451" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D451" s="5" t="s">
         <v>7</v>
@@ -18411,13 +18528,13 @@
     </row>
     <row r="452">
       <c r="A452" s="5" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B452" s="6">
         <v>9.95</v>
       </c>
       <c r="C452" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D452" s="5" t="s">
         <v>7</v>
@@ -18447,13 +18564,13 @@
     </row>
     <row r="453">
       <c r="A453" s="5" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B453" s="6">
         <v>8.95</v>
       </c>
       <c r="C453" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D453" s="5" t="s">
         <v>7</v>
@@ -18483,19 +18600,19 @@
     </row>
     <row r="454">
       <c r="A454" s="5" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B454" s="6">
         <v>8.95</v>
       </c>
       <c r="C454" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D454" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E454" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F454" s="7"/>
       <c r="G454" s="7"/>
@@ -18521,19 +18638,19 @@
     </row>
     <row r="455">
       <c r="A455" s="5" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B455" s="6">
         <v>8.95</v>
       </c>
       <c r="C455" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D455" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E455" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F455" s="7"/>
       <c r="G455" s="7"/>
@@ -18559,19 +18676,19 @@
     </row>
     <row r="456">
       <c r="A456" s="5" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B456" s="6">
         <v>7.95</v>
       </c>
       <c r="C456" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D456" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E456" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F456" s="7"/>
       <c r="G456" s="7"/>
@@ -18597,13 +18714,13 @@
     </row>
     <row r="457">
       <c r="A457" s="5" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B457" s="6">
         <v>7.95</v>
       </c>
       <c r="C457" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D457" s="5" t="s">
         <v>7</v>
@@ -18633,13 +18750,13 @@
     </row>
     <row r="458">
       <c r="A458" s="5" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B458" s="6">
         <v>7.95</v>
       </c>
       <c r="C458" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D458" s="5" t="s">
         <v>7</v>
@@ -18669,13 +18786,13 @@
     </row>
     <row r="459">
       <c r="A459" s="5" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="B459" s="6">
         <v>7.95</v>
       </c>
       <c r="C459" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D459" s="5" t="s">
         <v>7</v>
@@ -18705,13 +18822,13 @@
     </row>
     <row r="460">
       <c r="A460" s="5" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B460" s="6">
         <v>7.95</v>
       </c>
       <c r="C460" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D460" s="5" t="s">
         <v>7</v>
@@ -18741,19 +18858,19 @@
     </row>
     <row r="461">
       <c r="A461" s="5" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B461" s="6">
         <v>7.95</v>
       </c>
       <c r="C461" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D461" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E461" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F461" s="7"/>
       <c r="G461" s="7"/>
@@ -18779,19 +18896,19 @@
     </row>
     <row r="462">
       <c r="A462" s="5" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B462" s="6">
         <v>7.95</v>
       </c>
       <c r="C462" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D462" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E462" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F462" s="7"/>
       <c r="G462" s="7"/>
@@ -18817,13 +18934,13 @@
     </row>
     <row r="463">
       <c r="A463" s="5" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B463" s="6">
         <v>8.95</v>
       </c>
       <c r="C463" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D463" s="5" t="s">
         <v>7</v>
@@ -18853,13 +18970,13 @@
     </row>
     <row r="464">
       <c r="A464" s="5" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="B464" s="6">
         <v>9.95</v>
       </c>
       <c r="C464" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D464" s="5" t="s">
         <v>7</v>
@@ -18889,13 +19006,13 @@
     </row>
     <row r="465">
       <c r="A465" s="5" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="B465" s="6">
         <v>9.95</v>
       </c>
       <c r="C465" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D465" s="5" t="s">
         <v>7</v>
@@ -18925,13 +19042,13 @@
     </row>
     <row r="466">
       <c r="A466" s="5" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B466" s="6">
         <v>10.95</v>
       </c>
       <c r="C466" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D466" s="5" t="s">
         <v>7</v>
@@ -18961,13 +19078,13 @@
     </row>
     <row r="467">
       <c r="A467" s="5" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="B467" s="6">
         <v>10.95</v>
       </c>
       <c r="C467" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D467" s="5" t="s">
         <v>7</v>
@@ -18997,13 +19114,13 @@
     </row>
     <row r="468">
       <c r="A468" s="5" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="B468" s="6">
         <v>10.95</v>
       </c>
       <c r="C468" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D468" s="5" t="s">
         <v>7</v>
@@ -19033,19 +19150,19 @@
     </row>
     <row r="469">
       <c r="A469" s="5" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="B469" s="6">
         <v>10.95</v>
       </c>
       <c r="C469" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D469" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E469" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F469" s="7"/>
       <c r="G469" s="7"/>
@@ -19071,19 +19188,19 @@
     </row>
     <row r="470">
       <c r="A470" s="5" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="B470" s="6">
         <v>10.95</v>
       </c>
       <c r="C470" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D470" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E470" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F470" s="7"/>
       <c r="G470" s="7"/>
@@ -19109,19 +19226,19 @@
     </row>
     <row r="471">
       <c r="A471" s="5" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="B471" s="6">
         <v>10.95</v>
       </c>
       <c r="C471" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="D471" s="5" t="s">
         <v>7</v>
       </c>
       <c r="E471" s="8" t="s">
-        <v>219</v>
+        <v>42</v>
       </c>
       <c r="F471" s="7"/>
       <c r="G471" s="7"/>
@@ -34263,22 +34380,22 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
@@ -34307,22 +34424,22 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
@@ -34347,25 +34464,25 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D3" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>520</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="G3" s="5" t="s">
         <v>521</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>518</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
@@ -34390,25 +34507,25 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
@@ -34433,25 +34550,25 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="D5" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="C5" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>524</v>
-      </c>
       <c r="E5" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
@@ -34476,25 +34593,25 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>528</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>525</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H6" s="7"/>
       <c r="I6" s="7"/>
@@ -34519,25 +34636,25 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>526</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>527</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>528</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>529</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>523</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>516</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>525</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>526</v>
       </c>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
@@ -34562,25 +34679,25 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -34605,25 +34722,25 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -34648,25 +34765,25 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -34691,25 +34808,25 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
@@ -34734,25 +34851,25 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="C12" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
@@ -34777,25 +34894,25 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
@@ -34820,25 +34937,25 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
@@ -34866,22 +34983,22 @@
         <v>334</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="C15" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
@@ -34909,22 +35026,22 @@
         <v>367</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="C16" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
@@ -34952,22 +35069,22 @@
         <v>380</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="C17" s="14" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
@@ -34992,25 +35109,25 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="C18" s="14" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
@@ -35038,22 +35155,22 @@
         <v>399</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="C19" s="14" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="E19" s="15" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
